--- a/tecnica_analise/2022/EXPECTED-OVER-2022.xlsx
+++ b/tecnica_analise/2022/EXPECTED-OVER-2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="21" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="691">
   <si>
     <t>DATA</t>
   </si>
@@ -2269,7 +2269,10 @@
     <t>3--4</t>
   </si>
   <si>
-    <t>STAKE BET EX-OVER 3,8%</t>
+    <t>STAKE BET EX-OVER 2,5%</t>
+  </si>
+  <si>
+    <t>STAKE BET ex-over 2,5%</t>
   </si>
 </sst>
 </file>
@@ -2424,7 +2427,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2557,6 +2560,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -2633,7 +2642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -2866,6 +2875,12 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4292,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4367,11 +4382,11 @@
       </c>
       <c r="G2" s="33">
         <f>C2*D$187</f>
-        <v>7334</v>
+        <v>4825</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H33" si="0">G2-D$187</f>
-        <v>3534</v>
+        <v>2325</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>218</v>
@@ -4405,11 +4420,11 @@
       </c>
       <c r="G3" s="33">
         <f>C3*D$187</f>
-        <v>6992</v>
+        <v>4600</v>
       </c>
       <c r="H3" s="33">
         <f t="shared" si="0"/>
-        <v>3192</v>
+        <v>2100</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>128</v>
@@ -4446,7 +4461,7 @@
       </c>
       <c r="H4" s="33">
         <f t="shared" si="0"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>131</v>
@@ -4480,11 +4495,11 @@
       </c>
       <c r="G5" s="33">
         <f t="shared" ref="G5:G12" si="1">C5*D$187</f>
-        <v>6346</v>
+        <v>4175</v>
       </c>
       <c r="H5" s="33">
         <f t="shared" si="0"/>
-        <v>2546</v>
+        <v>1675</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>219</v>
@@ -4518,11 +4533,11 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>5890</v>
+        <v>3875</v>
       </c>
       <c r="H6" s="33">
         <f t="shared" si="0"/>
-        <v>2090</v>
+        <v>1375</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>128</v>
@@ -4556,11 +4571,11 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>6612</v>
+        <v>4350</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="0"/>
-        <v>2812</v>
+        <v>1850</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>134</v>
@@ -4594,11 +4609,11 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>6992</v>
+        <v>4600</v>
       </c>
       <c r="H8" s="33">
         <f t="shared" si="0"/>
-        <v>3192</v>
+        <v>2100</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>131</v>
@@ -4632,11 +4647,11 @@
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>5472</v>
+        <v>3600</v>
       </c>
       <c r="H9" s="33">
         <f t="shared" si="0"/>
-        <v>1672</v>
+        <v>1100</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>135</v>
@@ -4670,11 +4685,11 @@
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>6156</v>
+        <v>4050.0000000000005</v>
       </c>
       <c r="H10" s="33">
         <f t="shared" si="0"/>
-        <v>2356</v>
+        <v>1550.0000000000005</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>221</v>
@@ -4708,11 +4723,11 @@
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>6688</v>
+        <v>4400</v>
       </c>
       <c r="H11" s="33">
         <f t="shared" si="0"/>
-        <v>2888</v>
+        <v>1900</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>138</v>
@@ -4746,11 +4761,11 @@
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>7220</v>
+        <v>4750</v>
       </c>
       <c r="H12" s="33">
         <f t="shared" si="0"/>
-        <v>3420</v>
+        <v>2250</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>138</v>
@@ -4787,7 +4802,7 @@
       </c>
       <c r="H13" s="33">
         <f t="shared" si="0"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>136</v>
@@ -4824,7 +4839,7 @@
       </c>
       <c r="H14" s="33">
         <f t="shared" si="0"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>134</v>
@@ -4861,7 +4876,7 @@
       </c>
       <c r="H15" s="33">
         <f t="shared" si="0"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>217</v>
@@ -4895,11 +4910,11 @@
       </c>
       <c r="G16" s="33">
         <f>C16*D$187</f>
-        <v>6156</v>
+        <v>4050.0000000000005</v>
       </c>
       <c r="H16" s="33">
         <f t="shared" si="0"/>
-        <v>2356</v>
+        <v>1550.0000000000005</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>138</v>
@@ -4933,11 +4948,11 @@
       </c>
       <c r="G17" s="33">
         <f>C17*D$187</f>
-        <v>6422</v>
+        <v>4225</v>
       </c>
       <c r="H17" s="33">
         <f t="shared" si="0"/>
-        <v>2622</v>
+        <v>1725</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>138</v>
@@ -4971,11 +4986,11 @@
       </c>
       <c r="G18" s="33">
         <f>C18*D$187</f>
-        <v>6536</v>
+        <v>4300</v>
       </c>
       <c r="H18" s="33">
         <f t="shared" si="0"/>
-        <v>2736</v>
+        <v>1800</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>133</v>
@@ -5012,7 +5027,7 @@
       </c>
       <c r="H19" s="33">
         <f t="shared" si="0"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>129</v>
@@ -5046,11 +5061,11 @@
       </c>
       <c r="G20" s="33">
         <f t="shared" ref="G20:G25" si="2">C20*D$187</f>
-        <v>6536</v>
+        <v>4300</v>
       </c>
       <c r="H20" s="33">
         <f t="shared" si="0"/>
-        <v>2736</v>
+        <v>1800</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>222</v>
@@ -5084,11 +5099,11 @@
       </c>
       <c r="G21" s="33">
         <f t="shared" si="2"/>
-        <v>6878</v>
+        <v>4525</v>
       </c>
       <c r="H21" s="33">
         <f t="shared" si="0"/>
-        <v>3078</v>
+        <v>2025</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>131</v>
@@ -5122,11 +5137,11 @@
       </c>
       <c r="G22" s="33">
         <f t="shared" si="2"/>
-        <v>6460</v>
+        <v>4250</v>
       </c>
       <c r="H22" s="33">
         <f t="shared" si="0"/>
-        <v>2660</v>
+        <v>1750</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>130</v>
@@ -5160,11 +5175,11 @@
       </c>
       <c r="G23" s="33">
         <f t="shared" si="2"/>
-        <v>6004</v>
+        <v>3950</v>
       </c>
       <c r="H23" s="33">
         <f t="shared" si="0"/>
-        <v>2204</v>
+        <v>1450</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>127</v>
@@ -5198,11 +5213,11 @@
       </c>
       <c r="G24" s="33">
         <f t="shared" si="2"/>
-        <v>5662</v>
+        <v>3725</v>
       </c>
       <c r="H24" s="33">
         <f t="shared" si="0"/>
-        <v>1862</v>
+        <v>1225</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>127</v>
@@ -5236,11 +5251,11 @@
       </c>
       <c r="G25" s="33">
         <f t="shared" si="2"/>
-        <v>6498</v>
+        <v>4275</v>
       </c>
       <c r="H25" s="33">
         <f t="shared" si="0"/>
-        <v>2698</v>
+        <v>1775</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>135</v>
@@ -5277,7 +5292,7 @@
       </c>
       <c r="H26" s="33">
         <f t="shared" si="0"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>220</v>
@@ -5314,7 +5329,7 @@
       </c>
       <c r="H27" s="33">
         <f t="shared" si="0"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>140</v>
@@ -5348,11 +5363,11 @@
       </c>
       <c r="G28" s="33">
         <f t="shared" ref="G28:G40" si="3">C28*D$187</f>
-        <v>6992</v>
+        <v>4600</v>
       </c>
       <c r="H28" s="33">
         <f t="shared" si="0"/>
-        <v>3192</v>
+        <v>2100</v>
       </c>
       <c r="I28" s="16" t="s">
         <v>143</v>
@@ -5386,11 +5401,11 @@
       </c>
       <c r="G29" s="33">
         <f t="shared" si="3"/>
-        <v>6878</v>
+        <v>4525</v>
       </c>
       <c r="H29" s="33">
         <f t="shared" si="0"/>
-        <v>3078</v>
+        <v>2025</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>138</v>
@@ -5424,11 +5439,11 @@
       </c>
       <c r="G30" s="33">
         <f t="shared" si="3"/>
-        <v>6650</v>
+        <v>4375</v>
       </c>
       <c r="H30" s="33">
         <f t="shared" si="0"/>
-        <v>2850</v>
+        <v>1875</v>
       </c>
       <c r="I30" s="16" t="s">
         <v>134</v>
@@ -5462,11 +5477,11 @@
       </c>
       <c r="G31" s="33">
         <f t="shared" si="3"/>
-        <v>7410</v>
+        <v>4875</v>
       </c>
       <c r="H31" s="33">
         <f t="shared" si="0"/>
-        <v>3610</v>
+        <v>2375</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>142</v>
@@ -5500,11 +5515,11 @@
       </c>
       <c r="G32" s="33">
         <f t="shared" si="3"/>
-        <v>5700</v>
+        <v>3750</v>
       </c>
       <c r="H32" s="33">
         <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>1250</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>133</v>
@@ -5538,11 +5553,11 @@
       </c>
       <c r="G33" s="33">
         <f t="shared" si="3"/>
-        <v>6992</v>
+        <v>4600</v>
       </c>
       <c r="H33" s="33">
         <f t="shared" si="0"/>
-        <v>3192</v>
+        <v>2100</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>127</v>
@@ -5576,11 +5591,11 @@
       </c>
       <c r="G34" s="33">
         <f t="shared" si="3"/>
-        <v>7334</v>
+        <v>4825</v>
       </c>
       <c r="H34" s="33">
         <f t="shared" ref="H34:H65" si="4">G34-D$187</f>
-        <v>3534</v>
+        <v>2325</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>134</v>
@@ -5614,11 +5629,11 @@
       </c>
       <c r="G35" s="33">
         <f t="shared" si="3"/>
-        <v>6156</v>
+        <v>4050.0000000000005</v>
       </c>
       <c r="H35" s="33">
         <f t="shared" si="4"/>
-        <v>2356</v>
+        <v>1550.0000000000005</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>137</v>
@@ -5652,11 +5667,11 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="3"/>
-        <v>6194</v>
+        <v>4074.9999999999995</v>
       </c>
       <c r="H36" s="33">
         <f t="shared" si="4"/>
-        <v>2394</v>
+        <v>1574.9999999999995</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>224</v>
@@ -5690,11 +5705,11 @@
       </c>
       <c r="G37" s="33">
         <f t="shared" si="3"/>
-        <v>6764</v>
+        <v>4450</v>
       </c>
       <c r="H37" s="33">
         <f t="shared" si="4"/>
-        <v>2964</v>
+        <v>1950</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>137</v>
@@ -5728,11 +5743,11 @@
       </c>
       <c r="G38" s="33">
         <f t="shared" si="3"/>
-        <v>5890</v>
+        <v>3875</v>
       </c>
       <c r="H38" s="33">
         <f t="shared" si="4"/>
-        <v>2090</v>
+        <v>1375</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>219</v>
@@ -5766,11 +5781,11 @@
       </c>
       <c r="G39" s="33">
         <f t="shared" si="3"/>
-        <v>6802</v>
+        <v>4475</v>
       </c>
       <c r="H39" s="33">
         <f t="shared" si="4"/>
-        <v>3002</v>
+        <v>1975</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>138</v>
@@ -5804,11 +5819,11 @@
       </c>
       <c r="G40" s="33">
         <f t="shared" si="3"/>
-        <v>6840</v>
+        <v>4500</v>
       </c>
       <c r="H40" s="33">
         <f t="shared" si="4"/>
-        <v>3040</v>
+        <v>2000</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>342</v>
@@ -5845,7 +5860,7 @@
       </c>
       <c r="H41" s="33">
         <f t="shared" si="4"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>142</v>
@@ -5882,7 +5897,7 @@
       </c>
       <c r="H42" s="33">
         <f t="shared" si="4"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I42" s="16" t="s">
         <v>142</v>
@@ -5916,11 +5931,11 @@
       </c>
       <c r="G43" s="33">
         <f>C43*D$187</f>
-        <v>7144</v>
+        <v>4700</v>
       </c>
       <c r="H43" s="33">
         <f t="shared" si="4"/>
-        <v>3344</v>
+        <v>2200</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>133</v>
@@ -5957,7 +5972,7 @@
       </c>
       <c r="H44" s="33">
         <f t="shared" si="4"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>128</v>
@@ -5991,11 +6006,11 @@
       </c>
       <c r="G45" s="33">
         <f>C45*D$187</f>
-        <v>6270</v>
+        <v>4125</v>
       </c>
       <c r="H45" s="33">
         <f t="shared" si="4"/>
-        <v>2470</v>
+        <v>1625</v>
       </c>
       <c r="I45" s="16" t="s">
         <v>138</v>
@@ -6032,7 +6047,7 @@
       </c>
       <c r="H46" s="33">
         <f t="shared" si="4"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I46" s="16" t="s">
         <v>143</v>
@@ -6066,11 +6081,11 @@
       </c>
       <c r="G47" s="33">
         <f>C47*D$187</f>
-        <v>6764</v>
+        <v>4450</v>
       </c>
       <c r="H47" s="33">
         <f t="shared" si="4"/>
-        <v>2964</v>
+        <v>1950</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>138</v>
@@ -6104,11 +6119,11 @@
       </c>
       <c r="G48" s="33">
         <f>C48*D$187</f>
-        <v>6840</v>
+        <v>4500</v>
       </c>
       <c r="H48" s="33">
         <f t="shared" si="4"/>
-        <v>3040</v>
+        <v>2000</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>133</v>
@@ -6145,7 +6160,7 @@
       </c>
       <c r="H49" s="33">
         <f t="shared" si="4"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>138</v>
@@ -6179,11 +6194,11 @@
       </c>
       <c r="G50" s="33">
         <f>C50*D$187</f>
-        <v>6346</v>
+        <v>4175</v>
       </c>
       <c r="H50" s="33">
         <f t="shared" si="4"/>
-        <v>2546</v>
+        <v>1675</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>143</v>
@@ -6217,11 +6232,11 @@
       </c>
       <c r="G51" s="33">
         <f>C51*D$187</f>
-        <v>6270</v>
+        <v>4125</v>
       </c>
       <c r="H51" s="33">
         <f t="shared" si="4"/>
-        <v>2470</v>
+        <v>1625</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>143</v>
@@ -6255,11 +6270,11 @@
       </c>
       <c r="G52" s="33">
         <f>C52*D$187</f>
-        <v>7068</v>
+        <v>4650</v>
       </c>
       <c r="H52" s="33">
         <f t="shared" si="4"/>
-        <v>3268</v>
+        <v>2150</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>224</v>
@@ -6293,11 +6308,11 @@
       </c>
       <c r="G53" s="33">
         <f>C53*D$187</f>
-        <v>6688</v>
+        <v>4400</v>
       </c>
       <c r="H53" s="33">
         <f t="shared" si="4"/>
-        <v>2888</v>
+        <v>1900</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>143</v>
@@ -6331,11 +6346,11 @@
       </c>
       <c r="G54" s="33">
         <f>C54*D$187</f>
-        <v>6726</v>
+        <v>4425</v>
       </c>
       <c r="H54" s="33">
         <f t="shared" si="4"/>
-        <v>2926</v>
+        <v>1925</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>128</v>
@@ -6372,7 +6387,7 @@
       </c>
       <c r="H55" s="33">
         <f t="shared" si="4"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>133</v>
@@ -6409,7 +6424,7 @@
       </c>
       <c r="H56" s="33">
         <f t="shared" si="4"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>137</v>
@@ -6446,7 +6461,7 @@
       </c>
       <c r="H57" s="33">
         <f t="shared" si="4"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>131</v>
@@ -6480,11 +6495,11 @@
       </c>
       <c r="G58" s="33">
         <f>C58*D$187</f>
-        <v>7030</v>
+        <v>4625</v>
       </c>
       <c r="H58" s="33">
         <f t="shared" si="4"/>
-        <v>3230</v>
+        <v>2125</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>128</v>
@@ -6518,11 +6533,11 @@
       </c>
       <c r="G59" s="33">
         <f>C59*D$187</f>
-        <v>6612</v>
+        <v>4350</v>
       </c>
       <c r="H59" s="33">
         <f t="shared" si="4"/>
-        <v>2812</v>
+        <v>1850</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>138</v>
@@ -6556,11 +6571,11 @@
       </c>
       <c r="G60" s="33">
         <f>C60*D$187</f>
-        <v>6536</v>
+        <v>4300</v>
       </c>
       <c r="H60" s="33">
         <f t="shared" si="4"/>
-        <v>2736</v>
+        <v>1800</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>132</v>
@@ -6597,7 +6612,7 @@
       </c>
       <c r="H61" s="33">
         <f t="shared" si="4"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>134</v>
@@ -6631,11 +6646,11 @@
       </c>
       <c r="G62" s="33">
         <f>C62*D$187</f>
-        <v>5966</v>
+        <v>3925</v>
       </c>
       <c r="H62" s="33">
         <f t="shared" si="4"/>
-        <v>2166</v>
+        <v>1425</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>129</v>
@@ -6672,7 +6687,7 @@
       </c>
       <c r="H63" s="33">
         <f t="shared" si="4"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I63" s="16" t="s">
         <v>142</v>
@@ -6706,11 +6721,11 @@
       </c>
       <c r="G64" s="33">
         <f>C64*D$187</f>
-        <v>6878</v>
+        <v>4525</v>
       </c>
       <c r="H64" s="33">
         <f t="shared" si="4"/>
-        <v>3078</v>
+        <v>2025</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>130</v>
@@ -6747,7 +6762,7 @@
       </c>
       <c r="H65" s="33">
         <f t="shared" si="4"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>131</v>
@@ -6781,11 +6796,11 @@
       </c>
       <c r="G66" s="33">
         <f>C66*D$187</f>
-        <v>7030</v>
+        <v>4625</v>
       </c>
       <c r="H66" s="33">
         <f t="shared" ref="H66:H97" si="5">G66-D$187</f>
-        <v>3230</v>
+        <v>2125</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>127</v>
@@ -6819,11 +6834,11 @@
       </c>
       <c r="G67" s="33">
         <f>C67*D$187</f>
-        <v>6156</v>
+        <v>4050.0000000000005</v>
       </c>
       <c r="H67" s="33">
         <f t="shared" si="5"/>
-        <v>2356</v>
+        <v>1550.0000000000005</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>129</v>
@@ -6860,7 +6875,7 @@
       </c>
       <c r="H68" s="33">
         <f t="shared" si="5"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>132</v>
@@ -6894,11 +6909,11 @@
       </c>
       <c r="G69" s="33">
         <f t="shared" ref="G69:G78" si="6">C69*D$187</f>
-        <v>6080</v>
+        <v>4000</v>
       </c>
       <c r="H69" s="33">
         <f t="shared" si="5"/>
-        <v>2280</v>
+        <v>1500</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>138</v>
@@ -6932,11 +6947,11 @@
       </c>
       <c r="G70" s="33">
         <f t="shared" si="6"/>
-        <v>6726</v>
+        <v>4425</v>
       </c>
       <c r="H70" s="33">
         <f t="shared" si="5"/>
-        <v>2926</v>
+        <v>1925</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>127</v>
@@ -6970,11 +6985,11 @@
       </c>
       <c r="G71" s="33">
         <f t="shared" si="6"/>
-        <v>6916</v>
+        <v>4550</v>
       </c>
       <c r="H71" s="33">
         <f t="shared" si="5"/>
-        <v>3116</v>
+        <v>2050</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>217</v>
@@ -7008,11 +7023,11 @@
       </c>
       <c r="G72" s="33">
         <f t="shared" si="6"/>
-        <v>6194</v>
+        <v>4074.9999999999995</v>
       </c>
       <c r="H72" s="33">
         <f t="shared" si="5"/>
-        <v>2394</v>
+        <v>1574.9999999999995</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>128</v>
@@ -7046,11 +7061,11 @@
       </c>
       <c r="G73" s="33">
         <f t="shared" si="6"/>
-        <v>6346</v>
+        <v>4175</v>
       </c>
       <c r="H73" s="33">
         <f t="shared" si="5"/>
-        <v>2546</v>
+        <v>1675</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>132</v>
@@ -7084,11 +7099,11 @@
       </c>
       <c r="G74" s="33">
         <f t="shared" si="6"/>
-        <v>5928</v>
+        <v>3900</v>
       </c>
       <c r="H74" s="33">
         <f t="shared" si="5"/>
-        <v>2128</v>
+        <v>1400</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>217</v>
@@ -7122,11 +7137,11 @@
       </c>
       <c r="G75" s="33">
         <f t="shared" si="6"/>
-        <v>6384</v>
+        <v>4200</v>
       </c>
       <c r="H75" s="33">
         <f t="shared" si="5"/>
-        <v>2584</v>
+        <v>1700</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>138</v>
@@ -7160,11 +7175,11 @@
       </c>
       <c r="G76" s="33">
         <f t="shared" si="6"/>
-        <v>6080</v>
+        <v>4000</v>
       </c>
       <c r="H76" s="33">
         <f t="shared" si="5"/>
-        <v>2280</v>
+        <v>1500</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>220</v>
@@ -7198,11 +7213,11 @@
       </c>
       <c r="G77" s="33">
         <f t="shared" si="6"/>
-        <v>5852</v>
+        <v>3850</v>
       </c>
       <c r="H77" s="33">
         <f t="shared" si="5"/>
-        <v>2052</v>
+        <v>1350</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>219</v>
@@ -7236,11 +7251,11 @@
       </c>
       <c r="G78" s="33">
         <f t="shared" si="6"/>
-        <v>6080</v>
+        <v>4000</v>
       </c>
       <c r="H78" s="33">
         <f t="shared" si="5"/>
-        <v>2280</v>
+        <v>1500</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>219</v>
@@ -7277,7 +7292,7 @@
       </c>
       <c r="H79" s="33">
         <f t="shared" si="5"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I79" s="16" t="s">
         <v>217</v>
@@ -7311,11 +7326,11 @@
       </c>
       <c r="G80" s="33">
         <f>C80*D$187</f>
-        <v>7182</v>
+        <v>4725</v>
       </c>
       <c r="H80" s="33">
         <f t="shared" si="5"/>
-        <v>3382</v>
+        <v>2225</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>142</v>
@@ -7349,11 +7364,11 @@
       </c>
       <c r="G81" s="33">
         <f>C81*D$187</f>
-        <v>6726</v>
+        <v>4425</v>
       </c>
       <c r="H81" s="33">
         <f t="shared" si="5"/>
-        <v>2926</v>
+        <v>1925</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>511</v>
@@ -7387,11 +7402,11 @@
       </c>
       <c r="G82" s="33">
         <f>C82*D$187</f>
-        <v>6080</v>
+        <v>4000</v>
       </c>
       <c r="H82" s="33">
         <f t="shared" si="5"/>
-        <v>2280</v>
+        <v>1500</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>142</v>
@@ -7425,11 +7440,11 @@
       </c>
       <c r="G83" s="33">
         <f>C83*D$187</f>
-        <v>6346</v>
+        <v>4175</v>
       </c>
       <c r="H83" s="33">
         <f t="shared" si="5"/>
-        <v>2546</v>
+        <v>1675</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>133</v>
@@ -7466,7 +7481,7 @@
       </c>
       <c r="H84" s="33">
         <f t="shared" si="5"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>221</v>
@@ -7500,11 +7515,11 @@
       </c>
       <c r="G85" s="33">
         <f>C85*D$187</f>
-        <v>6802</v>
+        <v>4475</v>
       </c>
       <c r="H85" s="33">
         <f t="shared" si="5"/>
-        <v>3002</v>
+        <v>1975</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>135</v>
@@ -7541,7 +7556,7 @@
       </c>
       <c r="H86" s="33">
         <f t="shared" si="5"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>142</v>
@@ -7575,11 +7590,11 @@
       </c>
       <c r="G87" s="33">
         <f>C87*D$187</f>
-        <v>6270</v>
+        <v>4125</v>
       </c>
       <c r="H87" s="33">
         <f t="shared" si="5"/>
-        <v>2470</v>
+        <v>1625</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>217</v>
@@ -7613,11 +7628,11 @@
       </c>
       <c r="G88" s="33">
         <f>C88*D$187</f>
-        <v>6650</v>
+        <v>4375</v>
       </c>
       <c r="H88" s="33">
         <f t="shared" si="5"/>
-        <v>2850</v>
+        <v>1875</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>219</v>
@@ -7654,7 +7669,7 @@
       </c>
       <c r="H89" s="33">
         <f t="shared" si="5"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>143</v>
@@ -7688,11 +7703,11 @@
       </c>
       <c r="G90" s="33">
         <f>C90*D$187</f>
-        <v>7030</v>
+        <v>4625</v>
       </c>
       <c r="H90" s="33">
         <f t="shared" si="5"/>
-        <v>3230</v>
+        <v>2125</v>
       </c>
       <c r="I90" s="16" t="s">
         <v>131</v>
@@ -7726,11 +7741,11 @@
       </c>
       <c r="G91" s="33">
         <f>C91*D$187</f>
-        <v>6498</v>
+        <v>4275</v>
       </c>
       <c r="H91" s="33">
         <f t="shared" si="5"/>
-        <v>2698</v>
+        <v>1775</v>
       </c>
       <c r="I91" s="16" t="s">
         <v>129</v>
@@ -7767,7 +7782,7 @@
       </c>
       <c r="H92" s="33">
         <f t="shared" si="5"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>131</v>
@@ -7801,11 +7816,11 @@
       </c>
       <c r="G93" s="33">
         <f>C93*D$187</f>
-        <v>6118</v>
+        <v>4025.0000000000005</v>
       </c>
       <c r="H93" s="33">
         <f t="shared" si="5"/>
-        <v>2318</v>
+        <v>1525.0000000000005</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>134</v>
@@ -7839,11 +7854,11 @@
       </c>
       <c r="G94" s="33">
         <f>C94*D$187</f>
-        <v>5624</v>
+        <v>3700</v>
       </c>
       <c r="H94" s="33">
         <f t="shared" si="5"/>
-        <v>1824</v>
+        <v>1200</v>
       </c>
       <c r="I94" s="16" t="s">
         <v>223</v>
@@ -7877,11 +7892,11 @@
       </c>
       <c r="G95" s="33">
         <f>C95*D$187</f>
-        <v>7220</v>
+        <v>4750</v>
       </c>
       <c r="H95" s="33">
         <f t="shared" si="5"/>
-        <v>3420</v>
+        <v>2250</v>
       </c>
       <c r="I95" s="16" t="s">
         <v>224</v>
@@ -7918,7 +7933,7 @@
       </c>
       <c r="H96" s="33">
         <f t="shared" si="5"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I96" s="16" t="s">
         <v>138</v>
@@ -7952,11 +7967,11 @@
       </c>
       <c r="G97" s="33">
         <f>C97*D$187</f>
-        <v>7144</v>
+        <v>4700</v>
       </c>
       <c r="H97" s="33">
         <f t="shared" si="5"/>
-        <v>3344</v>
+        <v>2200</v>
       </c>
       <c r="I97" s="16" t="s">
         <v>129</v>
@@ -7990,11 +8005,11 @@
       </c>
       <c r="G98" s="33">
         <f>C98*D$187</f>
-        <v>6270</v>
+        <v>4125</v>
       </c>
       <c r="H98" s="33">
         <f t="shared" ref="H98:H129" si="7">G98-D$187</f>
-        <v>2470</v>
+        <v>1625</v>
       </c>
       <c r="I98" s="16" t="s">
         <v>138</v>
@@ -8028,11 +8043,11 @@
       </c>
       <c r="G99" s="33">
         <f>C99*D$187</f>
-        <v>5168</v>
+        <v>3400.0000000000005</v>
       </c>
       <c r="H99" s="33">
         <f t="shared" si="7"/>
-        <v>1368</v>
+        <v>900.00000000000045</v>
       </c>
       <c r="I99" s="16" t="s">
         <v>129</v>
@@ -8069,7 +8084,7 @@
       </c>
       <c r="H100" s="33">
         <f t="shared" si="7"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>131</v>
@@ -8103,11 +8118,11 @@
       </c>
       <c r="G101" s="33">
         <f>C101*D$187</f>
-        <v>6688</v>
+        <v>4400</v>
       </c>
       <c r="H101" s="33">
         <f t="shared" si="7"/>
-        <v>2888</v>
+        <v>1900</v>
       </c>
       <c r="I101" s="16" t="s">
         <v>140</v>
@@ -8141,11 +8156,11 @@
       </c>
       <c r="G102" s="33">
         <f>C102*D$187</f>
-        <v>6308</v>
+        <v>4150</v>
       </c>
       <c r="H102" s="33">
         <f t="shared" si="7"/>
-        <v>2508</v>
+        <v>1650</v>
       </c>
       <c r="I102" s="16" t="s">
         <v>220</v>
@@ -8182,7 +8197,7 @@
       </c>
       <c r="H103" s="33">
         <f t="shared" si="7"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I103" s="16" t="s">
         <v>138</v>
@@ -8216,11 +8231,11 @@
       </c>
       <c r="G104" s="33">
         <f>C104*D$187</f>
-        <v>6118</v>
+        <v>4025.0000000000005</v>
       </c>
       <c r="H104" s="33">
         <f t="shared" si="7"/>
-        <v>2318</v>
+        <v>1525.0000000000005</v>
       </c>
       <c r="I104" s="16" t="s">
         <v>141</v>
@@ -8257,7 +8272,7 @@
       </c>
       <c r="H105" s="33">
         <f t="shared" si="7"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I105" s="16" t="s">
         <v>133</v>
@@ -8294,7 +8309,7 @@
       </c>
       <c r="H106" s="33">
         <f t="shared" si="7"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>128</v>
@@ -8328,11 +8343,11 @@
       </c>
       <c r="G107" s="33">
         <f t="shared" ref="G107:G112" si="8">C107*D$187</f>
-        <v>6498</v>
+        <v>4275</v>
       </c>
       <c r="H107" s="33">
         <f t="shared" si="7"/>
-        <v>2698</v>
+        <v>1775</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>143</v>
@@ -8366,11 +8381,11 @@
       </c>
       <c r="G108" s="33">
         <f t="shared" si="8"/>
-        <v>6270</v>
+        <v>4125</v>
       </c>
       <c r="H108" s="33">
         <f t="shared" si="7"/>
-        <v>2470</v>
+        <v>1625</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>133</v>
@@ -8404,11 +8419,11 @@
       </c>
       <c r="G109" s="33">
         <f t="shared" si="8"/>
-        <v>6650</v>
+        <v>4375</v>
       </c>
       <c r="H109" s="33">
         <f t="shared" si="7"/>
-        <v>2850</v>
+        <v>1875</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>127</v>
@@ -8442,11 +8457,11 @@
       </c>
       <c r="G110" s="33">
         <f t="shared" si="8"/>
-        <v>6612</v>
+        <v>4350</v>
       </c>
       <c r="H110" s="33">
         <f t="shared" si="7"/>
-        <v>2812</v>
+        <v>1850</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>133</v>
@@ -8480,11 +8495,11 @@
       </c>
       <c r="G111" s="33">
         <f t="shared" si="8"/>
-        <v>6802</v>
+        <v>4475</v>
       </c>
       <c r="H111" s="33">
         <f t="shared" si="7"/>
-        <v>3002</v>
+        <v>1975</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>132</v>
@@ -8518,11 +8533,11 @@
       </c>
       <c r="G112" s="33">
         <f t="shared" si="8"/>
-        <v>7258</v>
+        <v>4775</v>
       </c>
       <c r="H112" s="33">
         <f t="shared" si="7"/>
-        <v>3458</v>
+        <v>2275</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>127</v>
@@ -8559,7 +8574,7 @@
       </c>
       <c r="H113" s="33">
         <f t="shared" si="7"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I113" s="16" t="s">
         <v>128</v>
@@ -8593,11 +8608,11 @@
       </c>
       <c r="G114" s="33">
         <f t="shared" ref="G114:G120" si="9">C114*D$187</f>
-        <v>6536</v>
+        <v>4300</v>
       </c>
       <c r="H114" s="33">
         <f t="shared" si="7"/>
-        <v>2736</v>
+        <v>1800</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>136</v>
@@ -8631,11 +8646,11 @@
       </c>
       <c r="G115" s="33">
         <f t="shared" si="9"/>
-        <v>7030</v>
+        <v>4625</v>
       </c>
       <c r="H115" s="33">
         <f t="shared" si="7"/>
-        <v>3230</v>
+        <v>2125</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>134</v>
@@ -8669,11 +8684,11 @@
       </c>
       <c r="G116" s="33">
         <f t="shared" si="9"/>
-        <v>6612</v>
+        <v>4350</v>
       </c>
       <c r="H116" s="33">
         <f t="shared" si="7"/>
-        <v>2812</v>
+        <v>1850</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>138</v>
@@ -8707,11 +8722,11 @@
       </c>
       <c r="G117" s="33">
         <f t="shared" si="9"/>
-        <v>7106</v>
+        <v>4675</v>
       </c>
       <c r="H117" s="33">
         <f t="shared" si="7"/>
-        <v>3306</v>
+        <v>2175</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>138</v>
@@ -8745,11 +8760,11 @@
       </c>
       <c r="G118" s="33">
         <f t="shared" si="9"/>
-        <v>7030</v>
+        <v>4625</v>
       </c>
       <c r="H118" s="33">
         <f t="shared" si="7"/>
-        <v>3230</v>
+        <v>2125</v>
       </c>
       <c r="I118" s="16" t="s">
         <v>128</v>
@@ -8783,11 +8798,11 @@
       </c>
       <c r="G119" s="33">
         <f t="shared" si="9"/>
-        <v>7182</v>
+        <v>4725</v>
       </c>
       <c r="H119" s="33">
         <f t="shared" si="7"/>
-        <v>3382</v>
+        <v>2225</v>
       </c>
       <c r="I119" s="16" t="s">
         <v>138</v>
@@ -8821,11 +8836,11 @@
       </c>
       <c r="G120" s="33">
         <f t="shared" si="9"/>
-        <v>6384</v>
+        <v>4200</v>
       </c>
       <c r="H120" s="33">
         <f t="shared" si="7"/>
-        <v>2584</v>
+        <v>1700</v>
       </c>
       <c r="I120" s="16" t="s">
         <v>143</v>
@@ -8862,7 +8877,7 @@
       </c>
       <c r="H121" s="33">
         <f t="shared" si="7"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>128</v>
@@ -8899,7 +8914,7 @@
       </c>
       <c r="H122" s="33">
         <f t="shared" si="7"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>131</v>
@@ -8933,11 +8948,11 @@
       </c>
       <c r="G123" s="33">
         <f>C123*D$187</f>
-        <v>6346</v>
+        <v>4175</v>
       </c>
       <c r="H123" s="33">
         <f t="shared" si="7"/>
-        <v>2546</v>
+        <v>1675</v>
       </c>
       <c r="I123" s="6" t="s">
         <v>132</v>
@@ -8974,7 +8989,7 @@
       </c>
       <c r="H124" s="33">
         <f t="shared" si="7"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>143</v>
@@ -9008,11 +9023,11 @@
       </c>
       <c r="G125" s="33">
         <f t="shared" ref="G125:G133" si="10">C125*D$187</f>
-        <v>6764</v>
+        <v>4450</v>
       </c>
       <c r="H125" s="33">
         <f t="shared" si="7"/>
-        <v>2964</v>
+        <v>1950</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>134</v>
@@ -9046,11 +9061,11 @@
       </c>
       <c r="G126" s="33">
         <f t="shared" si="10"/>
-        <v>6498</v>
+        <v>4275</v>
       </c>
       <c r="H126" s="33">
         <f t="shared" si="7"/>
-        <v>2698</v>
+        <v>1775</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>136</v>
@@ -9084,11 +9099,11 @@
       </c>
       <c r="G127" s="33">
         <f t="shared" si="10"/>
-        <v>6004</v>
+        <v>3950</v>
       </c>
       <c r="H127" s="33">
         <f t="shared" si="7"/>
-        <v>2204</v>
+        <v>1450</v>
       </c>
       <c r="I127" s="6" t="s">
         <v>218</v>
@@ -9122,11 +9137,11 @@
       </c>
       <c r="G128" s="33">
         <f t="shared" si="10"/>
-        <v>5776</v>
+        <v>3800</v>
       </c>
       <c r="H128" s="33">
         <f t="shared" si="7"/>
-        <v>1976</v>
+        <v>1300</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>142</v>
@@ -9160,11 +9175,11 @@
       </c>
       <c r="G129" s="33">
         <f t="shared" si="10"/>
-        <v>7334</v>
+        <v>4825</v>
       </c>
       <c r="H129" s="33">
         <f t="shared" si="7"/>
-        <v>3534</v>
+        <v>2325</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>127</v>
@@ -9198,11 +9213,11 @@
       </c>
       <c r="G130" s="33">
         <f t="shared" si="10"/>
-        <v>6954</v>
+        <v>4575</v>
       </c>
       <c r="H130" s="33">
         <f t="shared" ref="H130:H161" si="11">G130-D$187</f>
-        <v>3154</v>
+        <v>2075</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>133</v>
@@ -9236,11 +9251,11 @@
       </c>
       <c r="G131" s="33">
         <f t="shared" si="10"/>
-        <v>6726</v>
+        <v>4425</v>
       </c>
       <c r="H131" s="33">
         <f t="shared" si="11"/>
-        <v>2926</v>
+        <v>1925</v>
       </c>
       <c r="I131" s="6" t="s">
         <v>137</v>
@@ -9274,11 +9289,11 @@
       </c>
       <c r="G132" s="33">
         <f t="shared" si="10"/>
-        <v>6688</v>
+        <v>4400</v>
       </c>
       <c r="H132" s="33">
         <f t="shared" si="11"/>
-        <v>2888</v>
+        <v>1900</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>218</v>
@@ -9312,11 +9327,11 @@
       </c>
       <c r="G133" s="33">
         <f t="shared" si="10"/>
-        <v>6536</v>
+        <v>4300</v>
       </c>
       <c r="H133" s="33">
         <f t="shared" si="11"/>
-        <v>2736</v>
+        <v>1800</v>
       </c>
       <c r="I133" s="6" t="s">
         <v>142</v>
@@ -9353,7 +9368,7 @@
       </c>
       <c r="H134" s="33">
         <f t="shared" si="11"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>217</v>
@@ -9387,11 +9402,11 @@
       </c>
       <c r="G135" s="33">
         <f>C135*D$187</f>
-        <v>6460</v>
+        <v>4250</v>
       </c>
       <c r="H135" s="33">
         <f t="shared" si="11"/>
-        <v>2660</v>
+        <v>1750</v>
       </c>
       <c r="I135" s="6" t="s">
         <v>221</v>
@@ -9428,7 +9443,7 @@
       </c>
       <c r="H136" s="33">
         <f t="shared" si="11"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I136" s="6" t="s">
         <v>137</v>
@@ -9465,7 +9480,7 @@
       </c>
       <c r="H137" s="33">
         <f t="shared" si="11"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I137" s="6" t="s">
         <v>137</v>
@@ -9499,11 +9514,11 @@
       </c>
       <c r="G138" s="33">
         <f>C138*D$187</f>
-        <v>6840</v>
+        <v>4500</v>
       </c>
       <c r="H138" s="33">
         <f t="shared" si="11"/>
-        <v>3040</v>
+        <v>2000</v>
       </c>
       <c r="I138" s="6" t="s">
         <v>217</v>
@@ -9540,7 +9555,7 @@
       </c>
       <c r="H139" s="33">
         <f t="shared" si="11"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I139" s="6" t="s">
         <v>128</v>
@@ -9577,7 +9592,7 @@
       </c>
       <c r="H140" s="33">
         <f t="shared" si="11"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>131</v>
@@ -9611,11 +9626,11 @@
       </c>
       <c r="G141" s="33">
         <f>C141*D$187</f>
-        <v>5054</v>
+        <v>3325</v>
       </c>
       <c r="H141" s="33">
         <f t="shared" si="11"/>
-        <v>1254</v>
+        <v>825</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>653</v>
@@ -9649,11 +9664,11 @@
       </c>
       <c r="G142" s="33">
         <f>C142*D$187</f>
-        <v>6650</v>
+        <v>4375</v>
       </c>
       <c r="H142" s="33">
         <f t="shared" si="11"/>
-        <v>2850</v>
+        <v>1875</v>
       </c>
       <c r="I142" s="6" t="s">
         <v>133</v>
@@ -9687,11 +9702,11 @@
       </c>
       <c r="G143" s="33">
         <f>C143*D$187</f>
-        <v>6612</v>
+        <v>4350</v>
       </c>
       <c r="H143" s="33">
         <f t="shared" si="11"/>
-        <v>2812</v>
+        <v>1850</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>135</v>
@@ -9728,7 +9743,7 @@
       </c>
       <c r="H144" s="33">
         <f t="shared" si="11"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I144" s="16" t="s">
         <v>133</v>
@@ -9765,7 +9780,7 @@
       </c>
       <c r="H145" s="33">
         <f t="shared" si="11"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I145" s="6" t="s">
         <v>137</v>
@@ -9799,11 +9814,11 @@
       </c>
       <c r="G146" s="33">
         <f>C146*D$187</f>
-        <v>5054</v>
+        <v>3325</v>
       </c>
       <c r="H146" s="33">
         <f t="shared" si="11"/>
-        <v>1254</v>
+        <v>825</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>130</v>
@@ -9837,11 +9852,11 @@
       </c>
       <c r="G147" s="33">
         <f>C147*D$187</f>
-        <v>7334</v>
+        <v>4825</v>
       </c>
       <c r="H147" s="33">
         <f t="shared" si="11"/>
-        <v>3534</v>
+        <v>2325</v>
       </c>
       <c r="I147" s="16" t="s">
         <v>217</v>
@@ -9878,7 +9893,7 @@
       </c>
       <c r="H148" s="33">
         <f t="shared" si="11"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I148" s="16" t="s">
         <v>139</v>
@@ -9912,11 +9927,11 @@
       </c>
       <c r="G149" s="33">
         <f t="shared" ref="G149:G154" si="12">C149*D$187</f>
-        <v>5928</v>
+        <v>3900</v>
       </c>
       <c r="H149" s="33">
         <f t="shared" si="11"/>
-        <v>2128</v>
+        <v>1400</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>132</v>
@@ -9946,11 +9961,11 @@
       </c>
       <c r="G150" s="33">
         <f t="shared" si="12"/>
-        <v>5016</v>
+        <v>3300</v>
       </c>
       <c r="H150" s="33">
         <f t="shared" si="11"/>
-        <v>1216</v>
+        <v>800</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>510</v>
@@ -9980,11 +9995,11 @@
       </c>
       <c r="G151" s="33">
         <f t="shared" si="12"/>
-        <v>6840</v>
+        <v>4500</v>
       </c>
       <c r="H151" s="33">
         <f t="shared" si="11"/>
-        <v>3040</v>
+        <v>2000</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>142</v>
@@ -10014,11 +10029,11 @@
       </c>
       <c r="G152" s="33">
         <f t="shared" si="12"/>
-        <v>6802</v>
+        <v>4475</v>
       </c>
       <c r="H152" s="33">
         <f t="shared" si="11"/>
-        <v>3002</v>
+        <v>1975</v>
       </c>
       <c r="I152" s="6" t="s">
         <v>132</v>
@@ -10048,11 +10063,11 @@
       </c>
       <c r="G153" s="33">
         <f t="shared" si="12"/>
-        <v>6232</v>
+        <v>4100</v>
       </c>
       <c r="H153" s="33">
         <f t="shared" si="11"/>
-        <v>2432</v>
+        <v>1600</v>
       </c>
       <c r="I153" s="6" t="s">
         <v>127</v>
@@ -10082,11 +10097,11 @@
       </c>
       <c r="G154" s="33">
         <f t="shared" si="12"/>
-        <v>6840</v>
+        <v>4500</v>
       </c>
       <c r="H154" s="33">
         <f t="shared" si="11"/>
-        <v>3040</v>
+        <v>2000</v>
       </c>
       <c r="I154" s="6" t="s">
         <v>138</v>
@@ -10119,7 +10134,7 @@
       </c>
       <c r="H155" s="33">
         <f t="shared" si="11"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I155" s="6" t="s">
         <v>131</v>
@@ -10149,11 +10164,11 @@
       </c>
       <c r="G156" s="33">
         <f>C156*D$187</f>
-        <v>7182</v>
+        <v>4725</v>
       </c>
       <c r="H156" s="33">
         <f t="shared" si="11"/>
-        <v>3382</v>
+        <v>2225</v>
       </c>
       <c r="I156" s="6" t="s">
         <v>142</v>
@@ -10186,7 +10201,7 @@
       </c>
       <c r="H157" s="33">
         <f t="shared" si="11"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I157" s="6" t="s">
         <v>137</v>
@@ -10216,11 +10231,11 @@
       </c>
       <c r="G158" s="33">
         <f>C158*D$187</f>
-        <v>6232</v>
+        <v>4100</v>
       </c>
       <c r="H158" s="33">
         <f t="shared" si="11"/>
-        <v>2432</v>
+        <v>1600</v>
       </c>
       <c r="I158" s="6" t="s">
         <v>142</v>
@@ -10253,7 +10268,7 @@
       </c>
       <c r="H159" s="33">
         <f t="shared" si="11"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I159" s="6" t="s">
         <v>138</v>
@@ -10286,7 +10301,7 @@
       </c>
       <c r="H160" s="33">
         <f t="shared" si="11"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I160" s="6" t="s">
         <v>128</v>
@@ -10316,11 +10331,11 @@
       </c>
       <c r="G161" s="33">
         <f>C161*D$187</f>
-        <v>6726</v>
+        <v>4425</v>
       </c>
       <c r="H161" s="33">
         <f t="shared" si="11"/>
-        <v>2926</v>
+        <v>1925</v>
       </c>
       <c r="I161" s="6" t="s">
         <v>133</v>
@@ -10350,11 +10365,11 @@
       </c>
       <c r="G162" s="33">
         <f>C162*D$187</f>
-        <v>6270</v>
+        <v>4125</v>
       </c>
       <c r="H162" s="33">
         <f t="shared" ref="H162:H172" si="13">G162-D$187</f>
-        <v>2470</v>
+        <v>1625</v>
       </c>
       <c r="I162" s="6" t="s">
         <v>138</v>
@@ -10384,11 +10399,11 @@
       </c>
       <c r="G163" s="33">
         <f>C163*D$187</f>
-        <v>6954</v>
+        <v>4575</v>
       </c>
       <c r="H163" s="33">
         <f t="shared" si="13"/>
-        <v>3154</v>
+        <v>2075</v>
       </c>
       <c r="I163" s="6" t="s">
         <v>128</v>
@@ -10421,7 +10436,7 @@
       </c>
       <c r="H164" s="33">
         <f t="shared" si="13"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I164" s="6" t="s">
         <v>129</v>
@@ -10454,7 +10469,7 @@
       </c>
       <c r="H165" s="33">
         <f t="shared" si="13"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>128</v>
@@ -10484,11 +10499,11 @@
       </c>
       <c r="G166" s="33">
         <f>C166*D$187</f>
-        <v>6688</v>
+        <v>4400</v>
       </c>
       <c r="H166" s="33">
         <f t="shared" si="13"/>
-        <v>2888</v>
+        <v>1900</v>
       </c>
       <c r="I166" s="45" t="s">
         <v>142</v>
@@ -10518,11 +10533,11 @@
       </c>
       <c r="G167" s="33">
         <f>C167*D$187</f>
-        <v>6612</v>
+        <v>4350</v>
       </c>
       <c r="H167" s="33">
         <f t="shared" si="13"/>
-        <v>2812</v>
+        <v>1850</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>136</v>
@@ -10555,7 +10570,7 @@
       </c>
       <c r="H168" s="33">
         <f t="shared" si="13"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="I168" s="6" t="s">
         <v>127</v>
@@ -10585,11 +10600,11 @@
       </c>
       <c r="G169" s="33">
         <f>C169*D$187</f>
-        <v>5738</v>
+        <v>3775</v>
       </c>
       <c r="H169" s="33">
         <f t="shared" si="13"/>
-        <v>1938</v>
+        <v>1275</v>
       </c>
       <c r="I169" s="6" t="s">
         <v>133</v>
@@ -10619,11 +10634,11 @@
       </c>
       <c r="G170" s="33">
         <f>C170*D$187</f>
-        <v>6992</v>
+        <v>4600</v>
       </c>
       <c r="H170" s="33">
         <f t="shared" si="13"/>
-        <v>3192</v>
+        <v>2100</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>133</v>
@@ -10653,11 +10668,11 @@
       </c>
       <c r="G171" s="33">
         <f>C171*D$187</f>
-        <v>6764</v>
+        <v>4450</v>
       </c>
       <c r="H171" s="33">
         <f t="shared" si="13"/>
-        <v>2964</v>
+        <v>1950</v>
       </c>
       <c r="I171" s="6" t="s">
         <v>132</v>
@@ -10687,11 +10702,11 @@
       </c>
       <c r="G172" s="33">
         <f>C172*D$187</f>
-        <v>6270</v>
+        <v>4125</v>
       </c>
       <c r="H172" s="33">
         <f t="shared" si="13"/>
-        <v>2470</v>
+        <v>1625</v>
       </c>
       <c r="I172" s="6" t="s">
         <v>143</v>
@@ -10787,11 +10802,11 @@
       </c>
       <c r="I177" s="68">
         <f t="shared" ref="I177:I193" si="15">SUMIFS($H$2:$H$172,$J$2:$J$172,H177)</f>
-        <v>9842</v>
+        <v>6475</v>
       </c>
       <c r="J177" s="65">
         <f t="shared" ref="J177:J193" si="16">I177/D$184*100</f>
-        <v>9.8419999999999987</v>
+        <v>6.4750000000000005</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10843,11 +10858,11 @@
       </c>
       <c r="I179" s="68">
         <f t="shared" si="15"/>
-        <v>39102</v>
+        <v>25725</v>
       </c>
       <c r="J179" s="65">
         <f t="shared" si="16"/>
-        <v>39.101999999999997</v>
+        <v>25.724999999999998</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10899,11 +10914,11 @@
       </c>
       <c r="I181" s="68">
         <f t="shared" si="15"/>
-        <v>4940</v>
+        <v>3249.9999999999995</v>
       </c>
       <c r="J181" s="65">
         <f t="shared" si="16"/>
-        <v>4.9399999999999995</v>
+        <v>3.2499999999999996</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10914,7 +10929,7 @@
       <c r="C182" s="6"/>
       <c r="D182" s="24">
         <f>D189/1</f>
-        <v>152.494</v>
+        <v>100.325</v>
       </c>
       <c r="E182" s="16"/>
       <c r="F182" s="16"/>
@@ -10927,11 +10942,11 @@
       </c>
       <c r="I182" s="68">
         <f t="shared" si="15"/>
-        <v>19038</v>
+        <v>12525</v>
       </c>
       <c r="J182" s="65">
         <f t="shared" si="16"/>
-        <v>19.038</v>
+        <v>12.525</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10977,11 +10992,11 @@
       </c>
       <c r="I184" s="68">
         <f t="shared" si="15"/>
-        <v>21356</v>
+        <v>14050</v>
       </c>
       <c r="J184" s="65">
         <f t="shared" si="16"/>
-        <v>21.356000000000002</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11005,11 +11020,11 @@
       </c>
       <c r="I185" s="68">
         <f t="shared" si="15"/>
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="J185" s="65">
         <f t="shared" si="16"/>
-        <v>-3.8</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11047,8 +11062,8 @@
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="70">
-        <f>D185*3.8</f>
-        <v>3800</v>
+        <f>D185*2.5</f>
+        <v>2500</v>
       </c>
       <c r="E187" s="16"/>
       <c r="F187" s="16"/>
@@ -11061,11 +11076,11 @@
       </c>
       <c r="I187" s="68">
         <f t="shared" si="15"/>
-        <v>15656</v>
+        <v>10300</v>
       </c>
       <c r="J187" s="65">
         <f t="shared" si="16"/>
-        <v>15.656000000000001</v>
+        <v>10.299999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11076,7 +11091,7 @@
       <c r="C188" s="6"/>
       <c r="D188" s="21">
         <f>SUM(H2:H172)</f>
-        <v>152494</v>
+        <v>100325</v>
       </c>
       <c r="E188" s="16"/>
       <c r="F188" s="16"/>
@@ -11089,11 +11104,11 @@
       </c>
       <c r="I188" s="68">
         <f t="shared" si="15"/>
-        <v>22952</v>
+        <v>15100</v>
       </c>
       <c r="J188" s="65">
         <f t="shared" si="16"/>
-        <v>22.952000000000002</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11104,7 +11119,7 @@
       <c r="C189" s="6"/>
       <c r="D189" s="6">
         <f>D188/D184*100</f>
-        <v>152.494</v>
+        <v>100.325</v>
       </c>
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
@@ -11117,11 +11132,11 @@
       </c>
       <c r="I189" s="68">
         <f t="shared" si="15"/>
-        <v>4484</v>
+        <v>2950</v>
       </c>
       <c r="J189" s="65">
         <f t="shared" si="16"/>
-        <v>4.484</v>
+        <v>2.9499999999999997</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11130,7 +11145,7 @@
       <c r="C190" s="6"/>
       <c r="D190" s="21">
         <f>D189/11</f>
-        <v>13.863090909090909</v>
+        <v>9.120454545454546</v>
       </c>
       <c r="E190" s="16"/>
       <c r="F190" s="16"/>
@@ -11189,11 +11204,11 @@
       </c>
       <c r="I192" s="68">
         <f t="shared" si="15"/>
-        <v>18924</v>
+        <v>12450</v>
       </c>
       <c r="J192" s="65">
         <f t="shared" si="16"/>
-        <v>18.923999999999999</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11278,7 +11293,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12427,7 +12442,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="A2:J6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12496,7 +12511,7 @@
       </c>
       <c r="H2" s="33">
         <f>G2-D$20</f>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>128</v>
@@ -12526,11 +12541,11 @@
       </c>
       <c r="G3" s="33">
         <f>C3*D$20</f>
-        <v>1496.25</v>
+        <v>1068.75</v>
       </c>
       <c r="H3" s="33">
         <f>G3-D$20</f>
-        <v>621.25</v>
+        <v>443.75</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>143</v>
@@ -12560,11 +12575,11 @@
       </c>
       <c r="G4" s="33">
         <f>C4*D$20</f>
-        <v>1443.75</v>
+        <v>1031.25</v>
       </c>
       <c r="H4" s="33">
         <f>G4-D$20</f>
-        <v>568.75</v>
+        <v>406.25</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>133</v>
@@ -12594,11 +12609,11 @@
       </c>
       <c r="G5" s="33">
         <f>C5*D$20</f>
-        <v>1531.25</v>
+        <v>1093.75</v>
       </c>
       <c r="H5" s="33">
         <f>G5-D$20</f>
-        <v>656.25</v>
+        <v>468.75</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>127</v>
@@ -12628,11 +12643,11 @@
       </c>
       <c r="G6" s="33">
         <f>C6*D$20</f>
-        <v>1522.5</v>
+        <v>1087.5</v>
       </c>
       <c r="H6" s="33">
         <f>G6-D$20</f>
-        <v>647.5</v>
+        <v>462.5</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>133</v>
@@ -12853,12 +12868,12 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="31" t="s">
-        <v>250</v>
+        <v>690</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="32">
-        <f>D19*3.5</f>
-        <v>875</v>
+        <f>D19*2.5</f>
+        <v>625</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="54"/>
@@ -12875,7 +12890,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="33">
         <f>SUM(H2:H7)</f>
-        <v>1618.75</v>
+        <v>1156.25</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="54"/>
@@ -12892,7 +12907,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="16">
         <f>D21/D17*100</f>
-        <v>6.4750000000000005</v>
+        <v>4.625</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="54"/>
@@ -14323,7 +14338,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14389,11 +14404,11 @@
       </c>
       <c r="G2" s="58">
         <f>C2*D$16</f>
-        <v>1566.25</v>
+        <v>1118.75</v>
       </c>
       <c r="H2" s="58">
         <f>G2-D$16</f>
-        <v>691.25</v>
+        <v>493.75</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>132</v>
@@ -14614,12 +14629,12 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="31" t="s">
-        <v>250</v>
+        <v>690</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="32">
-        <f>D15*3.5</f>
-        <v>875</v>
+        <f>D15*2.5</f>
+        <v>625</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="54"/>
@@ -14636,7 +14651,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="33">
         <f>SUM(H2:H3)</f>
-        <v>691.25</v>
+        <v>493.75</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="54"/>
@@ -14653,7 +14668,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="16">
         <f>D17/D13*100</f>
-        <v>2.7650000000000001</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="54"/>
@@ -14704,8 +14719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16799,7 +16814,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16865,11 +16880,11 @@
       </c>
       <c r="G2" s="82">
         <f>C2*D$22</f>
-        <v>1618.75</v>
+        <v>1156.25</v>
       </c>
       <c r="H2" s="82">
         <f t="shared" ref="H2:H7" si="0">G2-D$22</f>
-        <v>743.75</v>
+        <v>531.25</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>128</v>
@@ -16899,11 +16914,11 @@
       </c>
       <c r="G3" s="33">
         <f>C3*D$22</f>
-        <v>1671.25</v>
+        <v>1193.75</v>
       </c>
       <c r="H3" s="33">
         <f t="shared" si="0"/>
-        <v>796.25</v>
+        <v>568.75</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>127</v>
@@ -16936,7 +16951,7 @@
       </c>
       <c r="H4" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>128</v>
@@ -16967,11 +16982,11 @@
       </c>
       <c r="G5" s="33">
         <f>C5*D$22</f>
-        <v>1505</v>
+        <v>1075</v>
       </c>
       <c r="H5" s="33">
         <f t="shared" si="0"/>
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>136</v>
@@ -17001,11 +17016,11 @@
       </c>
       <c r="G6" s="33">
         <f>C6*D$22</f>
-        <v>1618.75</v>
+        <v>1156.25</v>
       </c>
       <c r="H6" s="33">
         <f t="shared" si="0"/>
-        <v>743.75</v>
+        <v>531.25</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>134</v>
@@ -17035,11 +17050,11 @@
       </c>
       <c r="G7" s="33">
         <f>C7*D$22</f>
-        <v>1522.5</v>
+        <v>1087.5</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="0"/>
-        <v>647.5</v>
+        <v>462.5</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>138</v>
@@ -17272,12 +17287,12 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="31" t="s">
-        <v>250</v>
+        <v>690</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="32">
-        <f>D21*3.5</f>
-        <v>875</v>
+        <f>D21*2.5</f>
+        <v>625</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="36"/>
@@ -17294,7 +17309,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="33">
         <f>SUM(H2:H9)</f>
-        <v>2686.25</v>
+        <v>1918.75</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="36"/>
@@ -17311,7 +17326,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="16">
         <f>D23/D19*100</f>
-        <v>10.745000000000001</v>
+        <v>7.6749999999999998</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="36"/>
@@ -17356,8 +17371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20151,8 +20166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20220,11 +20235,11 @@
       </c>
       <c r="G2" s="33">
         <f>C2*D$25</f>
-        <v>1776.5</v>
+        <v>1168.75</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H11" si="0">G2-D$25</f>
-        <v>826.5</v>
+        <v>543.75</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>138</v>
@@ -20254,11 +20269,11 @@
       </c>
       <c r="G3" s="33">
         <f>C3*D$25</f>
-        <v>1757.5</v>
+        <v>1156.25</v>
       </c>
       <c r="H3" s="33">
         <f t="shared" si="0"/>
-        <v>807.5</v>
+        <v>531.25</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>128</v>
@@ -20288,11 +20303,11 @@
       </c>
       <c r="G4" s="33">
         <f>C4*D$25</f>
-        <v>1795.5</v>
+        <v>1181.25</v>
       </c>
       <c r="H4" s="33">
         <f t="shared" si="0"/>
-        <v>845.5</v>
+        <v>556.25</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>138</v>
@@ -20322,11 +20337,11 @@
       </c>
       <c r="G5" s="33">
         <f>C5*D$25</f>
-        <v>1596</v>
+        <v>1050</v>
       </c>
       <c r="H5" s="33">
         <f t="shared" si="0"/>
-        <v>646</v>
+        <v>425</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>143</v>
@@ -20359,7 +20374,7 @@
       </c>
       <c r="H6" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>128</v>
@@ -20392,7 +20407,7 @@
       </c>
       <c r="H7" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>131</v>
@@ -20422,11 +20437,11 @@
       </c>
       <c r="G8" s="33">
         <f>C8*D$25</f>
-        <v>1586.5</v>
+        <v>1043.75</v>
       </c>
       <c r="H8" s="33">
         <f t="shared" si="0"/>
-        <v>636.5</v>
+        <v>418.75</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>132</v>
@@ -20459,7 +20474,7 @@
       </c>
       <c r="H9" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>143</v>
@@ -20489,11 +20504,11 @@
       </c>
       <c r="G10" s="33">
         <f>C10*D$25</f>
-        <v>1691</v>
+        <v>1112.5</v>
       </c>
       <c r="H10" s="33">
         <f t="shared" si="0"/>
-        <v>741</v>
+        <v>487.5</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>134</v>
@@ -20523,11 +20538,11 @@
       </c>
       <c r="G11" s="33">
         <f>C11*D$25</f>
-        <v>1624.5</v>
+        <v>1068.75</v>
       </c>
       <c r="H11" s="33">
         <f t="shared" si="0"/>
-        <v>674.5</v>
+        <v>443.75</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>136</v>
@@ -20746,12 +20761,12 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="31" t="s">
-        <v>250</v>
+        <v>690</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="32">
-        <f>D24*3.8</f>
-        <v>950</v>
+        <f>D24*2.5</f>
+        <v>625</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="36"/>
@@ -20768,7 +20783,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="33">
         <f>SUM(H2:H13)</f>
-        <v>2327.5</v>
+        <v>1531.25</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="36"/>
@@ -20785,7 +20800,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="16">
         <f>D26/D22*100</f>
-        <v>9.31</v>
+        <v>6.125</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="36"/>
@@ -20829,8 +20844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24810,8 +24825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J21"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24877,11 +24892,11 @@
       </c>
       <c r="G2" s="33">
         <f t="shared" ref="G2:G7" si="0">C2*D$36</f>
-        <v>1501</v>
+        <v>987.5</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H21" si="1">G2-D$36</f>
-        <v>551</v>
+        <v>362.5</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>218</v>
@@ -24911,11 +24926,11 @@
       </c>
       <c r="G3" s="33">
         <f t="shared" si="0"/>
-        <v>1444</v>
+        <v>950</v>
       </c>
       <c r="H3" s="33">
         <f t="shared" si="1"/>
-        <v>494</v>
+        <v>325</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>142</v>
@@ -24945,11 +24960,11 @@
       </c>
       <c r="G4" s="33">
         <f t="shared" si="0"/>
-        <v>1833.5</v>
+        <v>1206.25</v>
       </c>
       <c r="H4" s="33">
         <f t="shared" si="1"/>
-        <v>883.5</v>
+        <v>581.25</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>127</v>
@@ -24979,11 +24994,11 @@
       </c>
       <c r="G5" s="33">
         <f t="shared" si="0"/>
-        <v>1738.5</v>
+        <v>1143.75</v>
       </c>
       <c r="H5" s="33">
         <f t="shared" si="1"/>
-        <v>788.5</v>
+        <v>518.75</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>133</v>
@@ -25013,11 +25028,11 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="0"/>
-        <v>1681.5</v>
+        <v>1106.25</v>
       </c>
       <c r="H6" s="33">
         <f t="shared" si="1"/>
-        <v>731.5</v>
+        <v>481.25</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>137</v>
@@ -25047,11 +25062,11 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="0"/>
-        <v>1672</v>
+        <v>1100</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="1"/>
-        <v>722</v>
+        <v>475</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>218</v>
@@ -25084,7 +25099,7 @@
       </c>
       <c r="H8" s="82">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>143</v>
@@ -25114,11 +25129,11 @@
       </c>
       <c r="G9" s="33">
         <f>C9*D$36</f>
-        <v>1634</v>
+        <v>1075</v>
       </c>
       <c r="H9" s="33">
         <f t="shared" si="1"/>
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>142</v>
@@ -25151,7 +25166,7 @@
       </c>
       <c r="H10" s="33">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>217</v>
@@ -25181,11 +25196,11 @@
       </c>
       <c r="G11" s="33">
         <f>C11*D$36</f>
-        <v>1615</v>
+        <v>1062.5</v>
       </c>
       <c r="H11" s="33">
         <f t="shared" si="1"/>
-        <v>665</v>
+        <v>437.5</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>221</v>
@@ -25218,7 +25233,7 @@
       </c>
       <c r="H12" s="33">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>137</v>
@@ -25251,7 +25266,7 @@
       </c>
       <c r="H13" s="33">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>137</v>
@@ -25281,11 +25296,11 @@
       </c>
       <c r="G14" s="33">
         <f>C14*D$36</f>
-        <v>1710</v>
+        <v>1125</v>
       </c>
       <c r="H14" s="33">
         <f t="shared" si="1"/>
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>217</v>
@@ -25318,7 +25333,7 @@
       </c>
       <c r="H15" s="33">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>128</v>
@@ -25351,7 +25366,7 @@
       </c>
       <c r="H16" s="33">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>131</v>
@@ -25381,11 +25396,11 @@
       </c>
       <c r="G17" s="33">
         <f>C17*D$36</f>
-        <v>1263.5</v>
+        <v>831.25</v>
       </c>
       <c r="H17" s="33">
         <f t="shared" si="1"/>
-        <v>313.5</v>
+        <v>206.25</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>653</v>
@@ -25415,11 +25430,11 @@
       </c>
       <c r="G18" s="33">
         <f>C18*D$36</f>
-        <v>1662.5</v>
+        <v>1093.75</v>
       </c>
       <c r="H18" s="33">
         <f t="shared" si="1"/>
-        <v>712.5</v>
+        <v>468.75</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>133</v>
@@ -25449,11 +25464,11 @@
       </c>
       <c r="G19" s="33">
         <f>C19*D$36</f>
-        <v>1653</v>
+        <v>1087.5</v>
       </c>
       <c r="H19" s="33">
         <f t="shared" si="1"/>
-        <v>703</v>
+        <v>462.5</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>135</v>
@@ -25486,7 +25501,7 @@
       </c>
       <c r="H20" s="33">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>133</v>
@@ -25519,7 +25534,7 @@
       </c>
       <c r="H21" s="33">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>137</v>
@@ -25753,8 +25768,8 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="32">
-        <f>D35*3.8</f>
-        <v>950</v>
+        <f>D35*2.5</f>
+        <v>625</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="36"/>
@@ -25771,7 +25786,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="33">
         <f>SUM(H2:H24)</f>
-        <v>408.5</v>
+        <v>268.75</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="36"/>
@@ -25788,7 +25803,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="16">
         <f>D37/D33*100</f>
-        <v>1.6340000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="36"/>
@@ -25833,8 +25848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25843,7 +25858,9 @@
     <col min="2" max="2" width="34.140625" style="6" customWidth="1"/>
     <col min="3" max="13" width="9.140625" style="6"/>
     <col min="14" max="14" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9.140625" style="6"/>
+    <col min="15" max="15" width="9.140625" style="6"/>
+    <col min="16" max="16" width="9.140625" style="87"/>
+    <col min="17" max="19" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="144" x14ac:dyDescent="0.25">
@@ -25892,7 +25909,7 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="88" t="s">
         <v>126</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -25951,7 +25968,7 @@
       <c r="O2" s="6">
         <v>1.36</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="87">
         <v>2.4300000000000002</v>
       </c>
       <c r="Q2" s="6">
@@ -26010,7 +26027,7 @@
       <c r="O3" s="6">
         <v>1.36</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="87">
         <v>2.1800000000000002</v>
       </c>
       <c r="Q3" s="6">
@@ -26069,7 +26086,7 @@
       <c r="O4" s="6">
         <v>1.43</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="87">
         <v>2.38</v>
       </c>
       <c r="Q4" s="6">
@@ -26128,7 +26145,7 @@
       <c r="O5" s="6">
         <v>404</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="87">
         <v>1.86</v>
       </c>
       <c r="Q5" s="6">
@@ -26187,7 +26204,7 @@
       <c r="O6" s="6">
         <v>404</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="87">
         <v>2.1</v>
       </c>
       <c r="Q6" s="6">
@@ -26246,7 +26263,7 @@
       <c r="O7" s="6">
         <v>404</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="87">
         <v>1.85</v>
       </c>
       <c r="Q7" s="6">
@@ -26305,7 +26322,7 @@
       <c r="O8" s="6">
         <v>404</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="87">
         <v>2.17</v>
       </c>
       <c r="Q8" s="6">
@@ -26364,7 +26381,7 @@
       <c r="O9" s="6">
         <v>1.39</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="87">
         <v>2.27</v>
       </c>
       <c r="Q9" s="6">
@@ -26423,7 +26440,7 @@
       <c r="O10" s="6">
         <v>1.43</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="87">
         <v>2.4300000000000002</v>
       </c>
       <c r="Q10" s="6">
@@ -26482,7 +26499,7 @@
       <c r="O11" s="6">
         <v>1.63</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="87">
         <v>2.85</v>
       </c>
       <c r="Q11" s="6">
@@ -26541,7 +26558,7 @@
       <c r="O12" s="6">
         <v>404</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="87">
         <v>1.94</v>
       </c>
       <c r="Q12" s="6">
@@ -26600,7 +26617,7 @@
       <c r="O13" s="6">
         <v>404</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="87">
         <v>1.41</v>
       </c>
       <c r="Q13" s="6">
@@ -26659,7 +26676,7 @@
       <c r="O14" s="6">
         <v>1.43</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="87">
         <v>2.4300000000000002</v>
       </c>
       <c r="Q14" s="6">
@@ -26718,7 +26735,7 @@
       <c r="O15" s="6">
         <v>1.41</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="87">
         <v>2.34</v>
       </c>
       <c r="Q15" s="6">
@@ -26777,7 +26794,7 @@
       <c r="O16" s="6">
         <v>1.43</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="87">
         <v>2.33</v>
       </c>
       <c r="Q16" s="6">
@@ -26836,7 +26853,7 @@
       <c r="O17" s="6">
         <v>1.27</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="87">
         <v>1.88</v>
       </c>
       <c r="Q17" s="6">
@@ -26895,7 +26912,7 @@
       <c r="O18" s="6">
         <v>404</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="87">
         <v>1.54</v>
       </c>
       <c r="Q18" s="6">
@@ -26954,7 +26971,7 @@
       <c r="O19" s="6">
         <v>1.26</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="87">
         <v>1.75</v>
       </c>
       <c r="Q19" s="6">
@@ -27013,7 +27030,7 @@
       <c r="O20" s="6">
         <v>1.48</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="87">
         <v>2.4900000000000002</v>
       </c>
       <c r="Q20" s="6">
@@ -27072,7 +27089,7 @@
       <c r="O21" s="6">
         <v>1.41</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="87">
         <v>2.37</v>
       </c>
       <c r="Q21" s="6">
@@ -27131,7 +27148,7 @@
       <c r="O22" s="6">
         <v>1.4</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="87">
         <v>2.31</v>
       </c>
       <c r="Q22" s="6">
@@ -27190,7 +27207,7 @@
       <c r="O23" s="6">
         <v>1.23</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="87">
         <v>1.74</v>
       </c>
       <c r="Q23" s="6">
@@ -27249,7 +27266,7 @@
       <c r="O24" s="6">
         <v>1.43</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="87">
         <v>2.2400000000000002</v>
       </c>
       <c r="Q24" s="6">
@@ -27308,7 +27325,7 @@
       <c r="O25" s="6">
         <v>1.31</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="87">
         <v>2.0299999999999998</v>
       </c>
       <c r="Q25" s="6">
@@ -27367,7 +27384,7 @@
       <c r="O26" s="6">
         <v>1.34</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="87">
         <v>1.4</v>
       </c>
       <c r="Q26" s="6">
@@ -27426,7 +27443,7 @@
       <c r="O27" s="6">
         <v>1.26</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="87">
         <v>1.73</v>
       </c>
       <c r="Q27" s="6">
@@ -27485,7 +27502,7 @@
       <c r="O28" s="6">
         <v>1.25</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="87">
         <v>1.77</v>
       </c>
       <c r="Q28" s="6">
@@ -27544,7 +27561,7 @@
       <c r="O29" s="6">
         <v>1.48</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="87">
         <v>2.57</v>
       </c>
       <c r="Q29" s="6">
@@ -27603,7 +27620,7 @@
       <c r="O30" s="6">
         <v>1.55</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="87">
         <v>2.91</v>
       </c>
       <c r="Q30" s="6">
@@ -27662,7 +27679,7 @@
       <c r="O31" s="6">
         <v>1.52</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="87">
         <v>2.68</v>
       </c>
       <c r="Q31" s="6">
@@ -27721,7 +27738,7 @@
       <c r="O32" s="6">
         <v>1.45</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="87">
         <v>2.5099999999999998</v>
       </c>
       <c r="Q32" s="6">
@@ -27780,7 +27797,7 @@
       <c r="O33" s="6">
         <v>404</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="87">
         <v>2.14</v>
       </c>
       <c r="Q33" s="6">
@@ -27839,7 +27856,7 @@
       <c r="O34" s="6">
         <v>1.49</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="87">
         <v>2.58</v>
       </c>
       <c r="Q34" s="6">
@@ -27898,7 +27915,7 @@
       <c r="O35" s="6">
         <v>404</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="87">
         <v>2.25</v>
       </c>
       <c r="Q35" s="6">
@@ -27957,7 +27974,7 @@
       <c r="O36" s="6">
         <v>1.44</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="87">
         <v>2.4900000000000002</v>
       </c>
       <c r="Q36" s="6">
@@ -28016,7 +28033,7 @@
       <c r="O37" s="6">
         <v>1.45</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="87">
         <v>1.92</v>
       </c>
       <c r="Q37" s="6">
@@ -28075,7 +28092,7 @@
       <c r="O38" s="6">
         <v>1.45</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="87">
         <v>2.39</v>
       </c>
       <c r="Q38" s="6">
@@ -28134,7 +28151,7 @@
       <c r="O39" s="6">
         <v>1.27</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="87">
         <v>1.89</v>
       </c>
       <c r="Q39" s="6">
@@ -28193,7 +28210,7 @@
       <c r="O40" s="6">
         <v>1.25</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="87">
         <v>1.71</v>
       </c>
       <c r="Q40" s="6">
@@ -28252,7 +28269,7 @@
       <c r="O41" s="6">
         <v>404</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="87">
         <v>1.6</v>
       </c>
       <c r="Q41" s="6">
@@ -28311,7 +28328,7 @@
       <c r="O42" s="6">
         <v>404</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="87">
         <v>1.9</v>
       </c>
       <c r="Q42" s="6">
@@ -28370,7 +28387,7 @@
       <c r="O43" s="6">
         <v>1.43</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43" s="87">
         <v>2.38</v>
       </c>
       <c r="Q43" s="6">
@@ -28429,7 +28446,7 @@
       <c r="O44" s="6">
         <v>1.48</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P44" s="87">
         <v>2.56</v>
       </c>
       <c r="Q44" s="6">
@@ -28488,7 +28505,7 @@
       <c r="O45" s="6">
         <v>1.43</v>
       </c>
-      <c r="P45" s="6">
+      <c r="P45" s="87">
         <v>2.4</v>
       </c>
       <c r="Q45" s="6">
@@ -28547,7 +28564,7 @@
       <c r="O46" s="6">
         <v>1.43</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46" s="87">
         <v>2.41</v>
       </c>
       <c r="Q46" s="6">
@@ -28606,7 +28623,7 @@
       <c r="O47" s="6">
         <v>1.29</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47" s="87">
         <v>1.95</v>
       </c>
       <c r="Q47" s="6">
@@ -28665,7 +28682,7 @@
       <c r="O48" s="6">
         <v>1.36</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48" s="87">
         <v>2.11</v>
       </c>
       <c r="Q48" s="6">
@@ -28724,7 +28741,7 @@
       <c r="O49" s="6">
         <v>1.5</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49" s="87">
         <v>2.63</v>
       </c>
       <c r="Q49" s="6">
@@ -28783,7 +28800,7 @@
       <c r="O50" s="6">
         <v>1.73</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50" s="87">
         <v>3.34</v>
       </c>
       <c r="Q50" s="6">
@@ -28842,7 +28859,7 @@
       <c r="O51" s="6">
         <v>1.57</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51" s="87">
         <v>2.93</v>
       </c>
       <c r="Q51" s="6">
@@ -28901,7 +28918,7 @@
       <c r="O52" s="6">
         <v>404</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52" s="87">
         <v>2.2200000000000002</v>
       </c>
       <c r="Q52" s="6">
@@ -28929,8 +28946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32380,8 +32397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32447,11 +32464,11 @@
       </c>
       <c r="G2" s="33">
         <f>C2*D$35</f>
-        <v>1163.75</v>
+        <v>831.25</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H17" si="0">G2-D$35</f>
-        <v>288.75</v>
+        <v>206.25</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>130</v>
@@ -32481,11 +32498,11 @@
       </c>
       <c r="G3" s="33">
         <f>C3*D$35</f>
-        <v>1688.75</v>
+        <v>1206.25</v>
       </c>
       <c r="H3" s="33">
         <f t="shared" si="0"/>
-        <v>813.75</v>
+        <v>581.25</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>217</v>
@@ -32518,7 +32535,7 @@
       </c>
       <c r="H4" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>139</v>
@@ -32548,11 +32565,11 @@
       </c>
       <c r="G5" s="33">
         <f>C5*D$35</f>
-        <v>1365</v>
+        <v>975</v>
       </c>
       <c r="H5" s="33">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>350</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>132</v>
@@ -32582,11 +32599,11 @@
       </c>
       <c r="G6" s="33">
         <f>C6*D$35</f>
-        <v>1155</v>
+        <v>825</v>
       </c>
       <c r="H6" s="33">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>510</v>
@@ -32616,11 +32633,11 @@
       </c>
       <c r="G7" s="33">
         <f>C7*D$35</f>
-        <v>1575</v>
+        <v>1125</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>142</v>
@@ -32650,11 +32667,11 @@
       </c>
       <c r="G8" s="33">
         <f>C8*D$35</f>
-        <v>1566.25</v>
+        <v>1118.75</v>
       </c>
       <c r="H8" s="33">
         <f t="shared" si="0"/>
-        <v>691.25</v>
+        <v>493.75</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>132</v>
@@ -32684,11 +32701,11 @@
       </c>
       <c r="G9" s="33">
         <f>C9*D$35</f>
-        <v>1435</v>
+        <v>1025</v>
       </c>
       <c r="H9" s="33">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>127</v>
@@ -32721,7 +32738,7 @@
       </c>
       <c r="H10" s="82">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>217</v>
@@ -32751,11 +32768,11 @@
       </c>
       <c r="G11" s="33">
         <f>C11*D$35</f>
-        <v>1575</v>
+        <v>1125</v>
       </c>
       <c r="H11" s="33">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>138</v>
@@ -32788,7 +32805,7 @@
       </c>
       <c r="H12" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>131</v>
@@ -32818,11 +32835,11 @@
       </c>
       <c r="G13" s="33">
         <f>C13*D$35</f>
-        <v>1653.75</v>
+        <v>1181.25</v>
       </c>
       <c r="H13" s="33">
         <f t="shared" si="0"/>
-        <v>778.75</v>
+        <v>556.25</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>142</v>
@@ -32855,7 +32872,7 @@
       </c>
       <c r="H14" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>137</v>
@@ -32885,11 +32902,11 @@
       </c>
       <c r="G15" s="33">
         <f>C15*D$35</f>
-        <v>1435</v>
+        <v>1025</v>
       </c>
       <c r="H15" s="33">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>142</v>
@@ -32922,7 +32939,7 @@
       </c>
       <c r="H16" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>138</v>
@@ -32955,7 +32972,7 @@
       </c>
       <c r="H17" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>128</v>
@@ -33228,8 +33245,8 @@
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="32">
-        <f>D34*3.5</f>
-        <v>875</v>
+        <f>D34*2.5</f>
+        <v>625</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="36"/>
@@ -33246,7 +33263,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="33">
         <f>SUM(H2:H23)</f>
-        <v>612.5</v>
+        <v>437.5</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="36"/>
@@ -33263,7 +33280,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="16">
         <f>D36/D32*100</f>
-        <v>2.4500000000000002</v>
+        <v>1.7500000000000002</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="36"/>
@@ -33319,8 +33336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35411,8 +35428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35478,11 +35495,11 @@
       </c>
       <c r="G2" s="33">
         <f>C2*D$30</f>
-        <v>1548.75</v>
+        <v>1106.25</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H14" si="0">G2-D$30</f>
-        <v>673.75</v>
+        <v>481.25</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>133</v>
@@ -35512,11 +35529,11 @@
       </c>
       <c r="G3" s="33">
         <f>C3*D$30</f>
-        <v>1443.75</v>
+        <v>1031.25</v>
       </c>
       <c r="H3" s="33">
         <f t="shared" si="0"/>
-        <v>568.75</v>
+        <v>406.25</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>138</v>
@@ -35546,11 +35563,11 @@
       </c>
       <c r="G4" s="33">
         <f>C4*D$30</f>
-        <v>1601.25</v>
+        <v>1143.75</v>
       </c>
       <c r="H4" s="33">
         <f t="shared" si="0"/>
-        <v>726.25</v>
+        <v>518.75</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>128</v>
@@ -35583,7 +35600,7 @@
       </c>
       <c r="H5" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>129</v>
@@ -35616,7 +35633,7 @@
       </c>
       <c r="H6" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>128</v>
@@ -35646,11 +35663,11 @@
       </c>
       <c r="G7" s="33">
         <f>C7*D$30</f>
-        <v>1540</v>
+        <v>1100</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="0"/>
-        <v>665</v>
+        <v>475</v>
       </c>
       <c r="I7" s="45" t="s">
         <v>142</v>
@@ -35680,11 +35697,11 @@
       </c>
       <c r="G8" s="33">
         <f>C8*D$30</f>
-        <v>1522.5</v>
+        <v>1087.5</v>
       </c>
       <c r="H8" s="33">
         <f t="shared" si="0"/>
-        <v>647.5</v>
+        <v>462.5</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>136</v>
@@ -35717,7 +35734,7 @@
       </c>
       <c r="H9" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>127</v>
@@ -35747,11 +35764,11 @@
       </c>
       <c r="G10" s="33">
         <f>C10*D$30</f>
-        <v>1321.25</v>
+        <v>943.75</v>
       </c>
       <c r="H10" s="33">
         <f t="shared" si="0"/>
-        <v>446.25</v>
+        <v>318.75</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>133</v>
@@ -35781,11 +35798,11 @@
       </c>
       <c r="G11" s="33">
         <f>C11*D$30</f>
-        <v>1610</v>
+        <v>1150</v>
       </c>
       <c r="H11" s="33">
         <f t="shared" si="0"/>
-        <v>735</v>
+        <v>525</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>133</v>
@@ -35815,11 +35832,11 @@
       </c>
       <c r="G12" s="33">
         <f>C12*D$30</f>
-        <v>1557.5</v>
+        <v>1112.5</v>
       </c>
       <c r="H12" s="33">
         <f t="shared" si="0"/>
-        <v>682.5</v>
+        <v>487.5</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>132</v>
@@ -35849,11 +35866,11 @@
       </c>
       <c r="G13" s="82">
         <f>C13*D$30</f>
-        <v>1531.25</v>
+        <v>1093.75</v>
       </c>
       <c r="H13" s="82">
         <f t="shared" si="0"/>
-        <v>656.25</v>
+        <v>468.75</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>131</v>
@@ -35883,11 +35900,11 @@
       </c>
       <c r="G14" s="33">
         <f>C14*D$30</f>
-        <v>1443.75</v>
+        <v>1031.25</v>
       </c>
       <c r="H14" s="33">
         <f t="shared" si="0"/>
-        <v>568.75</v>
+        <v>406.25</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>143</v>
@@ -36132,12 +36149,12 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="31" t="s">
-        <v>250</v>
+        <v>690</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="32">
-        <f>D29*3.5</f>
-        <v>875</v>
+        <f>D29*2.5</f>
+        <v>625</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="36"/>
@@ -36154,7 +36171,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="33">
         <f>SUM(H2:H18)</f>
-        <v>3745</v>
+        <v>2675</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="36"/>
@@ -36171,7 +36188,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="16">
         <f>D31/D27*100</f>
-        <v>14.979999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="36"/>
@@ -36222,8 +36239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36284,11 +36301,11 @@
       </c>
       <c r="F2" s="33">
         <f>C2*D$50</f>
-        <v>1833.5</v>
+        <v>1206.25</v>
       </c>
       <c r="G2" s="33">
         <f t="shared" ref="G2:G35" si="0">F2-D$50</f>
-        <v>883.5</v>
+        <v>581.25</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>218</v>
@@ -36315,11 +36332,11 @@
       </c>
       <c r="F3" s="33">
         <f>C3*D$50</f>
-        <v>1748</v>
+        <v>1150</v>
       </c>
       <c r="G3" s="33">
         <f t="shared" si="0"/>
-        <v>798</v>
+        <v>525</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>128</v>
@@ -36349,7 +36366,7 @@
       </c>
       <c r="G4" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>131</v>
@@ -36376,11 +36393,11 @@
       </c>
       <c r="F5" s="82">
         <f t="shared" ref="F5:F15" si="1">C5*D$50</f>
-        <v>1786</v>
+        <v>1175</v>
       </c>
       <c r="G5" s="82">
         <f t="shared" si="0"/>
-        <v>836</v>
+        <v>550</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>132</v>
@@ -36407,11 +36424,11 @@
       </c>
       <c r="F6" s="33">
         <f t="shared" si="1"/>
-        <v>1586.5</v>
+        <v>1043.75</v>
       </c>
       <c r="G6" s="33">
         <f t="shared" si="0"/>
-        <v>636.5</v>
+        <v>418.75</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>219</v>
@@ -36438,11 +36455,11 @@
       </c>
       <c r="F7" s="82">
         <f t="shared" si="1"/>
-        <v>1843</v>
+        <v>1212.5</v>
       </c>
       <c r="G7" s="82">
         <f t="shared" si="0"/>
-        <v>893</v>
+        <v>587.5</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>138</v>
@@ -36469,11 +36486,11 @@
       </c>
       <c r="F8" s="33">
         <f t="shared" si="1"/>
-        <v>1472.5</v>
+        <v>968.75</v>
       </c>
       <c r="G8" s="33">
         <f t="shared" si="0"/>
-        <v>522.5</v>
+        <v>343.75</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>128</v>
@@ -36500,11 +36517,11 @@
       </c>
       <c r="F9" s="33">
         <f t="shared" si="1"/>
-        <v>1653</v>
+        <v>1087.5</v>
       </c>
       <c r="G9" s="33">
         <f t="shared" si="0"/>
-        <v>703</v>
+        <v>462.5</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>134</v>
@@ -36531,11 +36548,11 @@
       </c>
       <c r="F10" s="82">
         <f t="shared" si="1"/>
-        <v>1729</v>
+        <v>1137.5</v>
       </c>
       <c r="G10" s="82">
         <f t="shared" si="0"/>
-        <v>779</v>
+        <v>512.5</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>138</v>
@@ -36562,11 +36579,11 @@
       </c>
       <c r="F11" s="33">
         <f t="shared" si="1"/>
-        <v>1748</v>
+        <v>1150</v>
       </c>
       <c r="G11" s="33">
         <f t="shared" si="0"/>
-        <v>798</v>
+        <v>525</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>131</v>
@@ -36593,11 +36610,11 @@
       </c>
       <c r="F12" s="33">
         <f t="shared" si="1"/>
-        <v>1368</v>
+        <v>900</v>
       </c>
       <c r="G12" s="33">
         <f t="shared" si="0"/>
-        <v>418</v>
+        <v>275</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>135</v>
@@ -36624,11 +36641,11 @@
       </c>
       <c r="F13" s="33">
         <f t="shared" si="1"/>
-        <v>1539</v>
+        <v>1012.5000000000001</v>
       </c>
       <c r="G13" s="33">
         <f t="shared" si="0"/>
-        <v>589</v>
+        <v>387.50000000000011</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>221</v>
@@ -36655,11 +36672,11 @@
       </c>
       <c r="F14" s="33">
         <f t="shared" si="1"/>
-        <v>1672</v>
+        <v>1100</v>
       </c>
       <c r="G14" s="33">
         <f t="shared" si="0"/>
-        <v>722</v>
+        <v>475</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>138</v>
@@ -36686,11 +36703,11 @@
       </c>
       <c r="F15" s="33">
         <f t="shared" si="1"/>
-        <v>1805</v>
+        <v>1187.5</v>
       </c>
       <c r="G15" s="33">
         <f t="shared" si="0"/>
-        <v>855</v>
+        <v>562.5</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>138</v>
@@ -36720,7 +36737,7 @@
       </c>
       <c r="G16" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>136</v>
@@ -36750,7 +36767,7 @@
       </c>
       <c r="G17" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>134</v>
@@ -36780,7 +36797,7 @@
       </c>
       <c r="G18" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>217</v>
@@ -36807,11 +36824,11 @@
       </c>
       <c r="F19" s="33">
         <f>C19*D$50</f>
-        <v>1539</v>
+        <v>1012.5000000000001</v>
       </c>
       <c r="G19" s="33">
         <f t="shared" si="0"/>
-        <v>589</v>
+        <v>387.50000000000011</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>138</v>
@@ -36838,11 +36855,11 @@
       </c>
       <c r="F20" s="33">
         <f>C20*D$50</f>
-        <v>1605.5</v>
+        <v>1056.25</v>
       </c>
       <c r="G20" s="33">
         <f t="shared" si="0"/>
-        <v>655.5</v>
+        <v>431.25</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>138</v>
@@ -36869,11 +36886,11 @@
       </c>
       <c r="F21" s="33">
         <f>C21*D$50</f>
-        <v>1634</v>
+        <v>1075</v>
       </c>
       <c r="G21" s="33">
         <f t="shared" si="0"/>
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>133</v>
@@ -36903,7 +36920,7 @@
       </c>
       <c r="G22" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>129</v>
@@ -36930,11 +36947,11 @@
       </c>
       <c r="F23" s="33">
         <f t="shared" ref="F23:F28" si="2">C23*D$50</f>
-        <v>1634</v>
+        <v>1075</v>
       </c>
       <c r="G23" s="33">
         <f t="shared" si="0"/>
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>222</v>
@@ -36961,11 +36978,11 @@
       </c>
       <c r="F24" s="33">
         <f t="shared" si="2"/>
-        <v>1719.5</v>
+        <v>1131.25</v>
       </c>
       <c r="G24" s="33">
         <f t="shared" si="0"/>
-        <v>769.5</v>
+        <v>506.25</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>131</v>
@@ -36992,11 +37009,11 @@
       </c>
       <c r="F25" s="33">
         <f t="shared" si="2"/>
-        <v>1615</v>
+        <v>1062.5</v>
       </c>
       <c r="G25" s="33">
         <f t="shared" si="0"/>
-        <v>665</v>
+        <v>437.5</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>130</v>
@@ -37023,11 +37040,11 @@
       </c>
       <c r="F26" s="33">
         <f t="shared" si="2"/>
-        <v>1501</v>
+        <v>987.5</v>
       </c>
       <c r="G26" s="33">
         <f t="shared" si="0"/>
-        <v>551</v>
+        <v>362.5</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>127</v>
@@ -37054,11 +37071,11 @@
       </c>
       <c r="F27" s="33">
         <f t="shared" si="2"/>
-        <v>1415.5</v>
+        <v>931.25</v>
       </c>
       <c r="G27" s="33">
         <f t="shared" si="0"/>
-        <v>465.5</v>
+        <v>306.25</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>127</v>
@@ -37085,11 +37102,11 @@
       </c>
       <c r="F28" s="33">
         <f t="shared" si="2"/>
-        <v>1624.5</v>
+        <v>1068.75</v>
       </c>
       <c r="G28" s="33">
         <f t="shared" si="0"/>
-        <v>674.5</v>
+        <v>443.75</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>135</v>
@@ -37119,7 +37136,7 @@
       </c>
       <c r="G29" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>220</v>
@@ -37149,7 +37166,7 @@
       </c>
       <c r="G30" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>140</v>
@@ -37176,11 +37193,11 @@
       </c>
       <c r="F31" s="33">
         <f>C31*D$50</f>
-        <v>1748</v>
+        <v>1150</v>
       </c>
       <c r="G31" s="33">
         <f t="shared" si="0"/>
-        <v>798</v>
+        <v>525</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>143</v>
@@ -37207,11 +37224,11 @@
       </c>
       <c r="F32" s="33">
         <f>C32*D$50</f>
-        <v>1719.5</v>
+        <v>1131.25</v>
       </c>
       <c r="G32" s="33">
         <f t="shared" si="0"/>
-        <v>769.5</v>
+        <v>506.25</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>138</v>
@@ -37238,11 +37255,11 @@
       </c>
       <c r="F33" s="33">
         <f>C33*D$50</f>
-        <v>1662.5</v>
+        <v>1093.75</v>
       </c>
       <c r="G33" s="33">
         <f t="shared" si="0"/>
-        <v>712.5</v>
+        <v>468.75</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>134</v>
@@ -37269,11 +37286,11 @@
       </c>
       <c r="F34" s="33">
         <f>C34*D$50</f>
-        <v>1852.5</v>
+        <v>1218.75</v>
       </c>
       <c r="G34" s="33">
         <f t="shared" si="0"/>
-        <v>902.5</v>
+        <v>593.75</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>142</v>
@@ -37300,11 +37317,11 @@
       </c>
       <c r="F35" s="33">
         <f>C35*D$50</f>
-        <v>1425</v>
+        <v>937.5</v>
       </c>
       <c r="G35" s="33">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>312.5</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>133</v>
@@ -37512,12 +37529,12 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="31" t="s">
-        <v>250</v>
+        <v>690</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="32">
-        <f>D49*3.8</f>
-        <v>950</v>
+        <f>D49*2.5</f>
+        <v>625</v>
       </c>
       <c r="E50" s="36"/>
       <c r="F50" s="40"/>
@@ -37532,7 +37549,7 @@
       <c r="C51" s="6"/>
       <c r="D51" s="33">
         <f>SUM(G2:G37)</f>
-        <v>12179</v>
+        <v>8012.5</v>
       </c>
       <c r="E51" s="36"/>
       <c r="F51" s="41"/>
@@ -37546,11 +37563,11 @@
       </c>
       <c r="C52" s="6">
         <f>D51/D48</f>
-        <v>0.48715999999999998</v>
+        <v>0.32050000000000001</v>
       </c>
       <c r="D52" s="16">
         <f>D51/D47*100</f>
-        <v>48.716000000000001</v>
+        <v>32.049999999999997</v>
       </c>
       <c r="E52" s="36"/>
       <c r="F52" s="40"/>
@@ -37598,8 +37615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41457,8 +41474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41524,11 +41541,11 @@
       </c>
       <c r="G2" s="33">
         <f t="shared" ref="G2:G8" si="0">C2*D$41</f>
-        <v>1748</v>
+        <v>1150</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H25" si="1">G2-D$41</f>
-        <v>798</v>
+        <v>525</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>127</v>
@@ -41558,11 +41575,11 @@
       </c>
       <c r="G3" s="33">
         <f t="shared" si="0"/>
-        <v>1833.5</v>
+        <v>1206.25</v>
       </c>
       <c r="H3" s="33">
         <f t="shared" si="1"/>
-        <v>883.5</v>
+        <v>581.25</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>134</v>
@@ -41592,11 +41609,11 @@
       </c>
       <c r="G4" s="33">
         <f t="shared" si="0"/>
-        <v>1539</v>
+        <v>1012.5000000000001</v>
       </c>
       <c r="H4" s="33">
         <f t="shared" si="1"/>
-        <v>589</v>
+        <v>387.50000000000011</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>137</v>
@@ -41626,11 +41643,11 @@
       </c>
       <c r="G5" s="33">
         <f t="shared" si="0"/>
-        <v>1548.5</v>
+        <v>1018.7499999999999</v>
       </c>
       <c r="H5" s="33">
         <f t="shared" si="1"/>
-        <v>598.5</v>
+        <v>393.74999999999989</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>224</v>
@@ -41660,11 +41677,11 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="0"/>
-        <v>1691</v>
+        <v>1112.5</v>
       </c>
       <c r="H6" s="33">
         <f t="shared" si="1"/>
-        <v>741</v>
+        <v>487.5</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>137</v>
@@ -41694,11 +41711,11 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="0"/>
-        <v>1472.5</v>
+        <v>968.75</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="1"/>
-        <v>522.5</v>
+        <v>343.75</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>219</v>
@@ -41728,11 +41745,11 @@
       </c>
       <c r="G8" s="82">
         <f t="shared" si="0"/>
-        <v>1681.5</v>
+        <v>1106.25</v>
       </c>
       <c r="H8" s="82">
         <f t="shared" si="1"/>
-        <v>731.5</v>
+        <v>481.25</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>131</v>
@@ -41765,7 +41782,7 @@
       </c>
       <c r="H9" s="82">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>221</v>
@@ -41795,11 +41812,11 @@
       </c>
       <c r="G10" s="33">
         <f>C10*D$41</f>
-        <v>1700.5</v>
+        <v>1118.75</v>
       </c>
       <c r="H10" s="33">
         <f t="shared" si="1"/>
-        <v>750.5</v>
+        <v>493.75</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>138</v>
@@ -41829,11 +41846,11 @@
       </c>
       <c r="G11" s="33">
         <f>C11*D$41</f>
-        <v>1710</v>
+        <v>1125</v>
       </c>
       <c r="H11" s="33">
         <f t="shared" si="1"/>
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>342</v>
@@ -41866,7 +41883,7 @@
       </c>
       <c r="H12" s="33">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>142</v>
@@ -41899,7 +41916,7 @@
       </c>
       <c r="H13" s="33">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>142</v>
@@ -41929,11 +41946,11 @@
       </c>
       <c r="G14" s="33">
         <f>C14*D$41</f>
-        <v>1786</v>
+        <v>1175</v>
       </c>
       <c r="H14" s="33">
         <f t="shared" si="1"/>
-        <v>836</v>
+        <v>550</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>133</v>
@@ -41966,7 +41983,7 @@
       </c>
       <c r="H15" s="33">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>128</v>
@@ -41996,11 +42013,11 @@
       </c>
       <c r="G16" s="33">
         <f>C16*D$41</f>
-        <v>1567.5</v>
+        <v>1031.25</v>
       </c>
       <c r="H16" s="33">
         <f t="shared" si="1"/>
-        <v>617.5</v>
+        <v>406.25</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>138</v>
@@ -42033,7 +42050,7 @@
       </c>
       <c r="H17" s="33">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>143</v>
@@ -42063,11 +42080,11 @@
       </c>
       <c r="G18" s="33">
         <f>C18*D$41</f>
-        <v>1691</v>
+        <v>1112.5</v>
       </c>
       <c r="H18" s="33">
         <f t="shared" si="1"/>
-        <v>741</v>
+        <v>487.5</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>138</v>
@@ -42097,11 +42114,11 @@
       </c>
       <c r="G19" s="33">
         <f>C19*D$41</f>
-        <v>1710</v>
+        <v>1125</v>
       </c>
       <c r="H19" s="33">
         <f t="shared" si="1"/>
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>133</v>
@@ -42134,7 +42151,7 @@
       </c>
       <c r="H20" s="33">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>138</v>
@@ -42167,7 +42184,7 @@
       </c>
       <c r="H21" s="82">
         <f t="shared" si="1"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>131</v>
@@ -42197,11 +42214,11 @@
       </c>
       <c r="G22" s="33">
         <f>C22*D$41</f>
-        <v>1586.5</v>
+        <v>1043.75</v>
       </c>
       <c r="H22" s="33">
         <f t="shared" si="1"/>
-        <v>636.5</v>
+        <v>418.75</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>143</v>
@@ -42231,11 +42248,11 @@
       </c>
       <c r="G23" s="33">
         <f>C23*D$41</f>
-        <v>1567.5</v>
+        <v>1031.25</v>
       </c>
       <c r="H23" s="33">
         <f t="shared" si="1"/>
-        <v>617.5</v>
+        <v>406.25</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>143</v>
@@ -42265,11 +42282,11 @@
       </c>
       <c r="G24" s="82">
         <f>C24*D$41</f>
-        <v>1738.5</v>
+        <v>1143.75</v>
       </c>
       <c r="H24" s="82">
         <f t="shared" si="1"/>
-        <v>788.5</v>
+        <v>518.75</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>128</v>
@@ -42299,11 +42316,11 @@
       </c>
       <c r="G25" s="33">
         <f>C25*D$41</f>
-        <v>1767</v>
+        <v>1162.5</v>
       </c>
       <c r="H25" s="33">
         <f t="shared" si="1"/>
-        <v>817</v>
+        <v>537.5</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>224</v>
@@ -42548,12 +42565,12 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="31" t="s">
-        <v>250</v>
+        <v>690</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="32">
-        <f>D40*3.8</f>
-        <v>950</v>
+        <f>D40*2.5</f>
+        <v>625</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="36"/>
@@ -42570,7 +42587,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="33">
         <f>SUM(H2:H28)</f>
-        <v>5538.5</v>
+        <v>3643.75</v>
       </c>
       <c r="E42" s="33"/>
       <c r="F42" s="36"/>
@@ -42587,7 +42604,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="16">
         <f>D42/D38*100</f>
-        <v>22.154</v>
+        <v>14.574999999999999</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="36"/>
@@ -42639,8 +42656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+    <sheetView topLeftCell="C68" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48449,8 +48466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48519,11 +48536,11 @@
       </c>
       <c r="G2" s="33">
         <f>C2*D$54</f>
-        <v>1672</v>
+        <v>1100</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H39" si="0">G2-D$54</f>
-        <v>722</v>
+        <v>475</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>143</v>
@@ -48553,11 +48570,11 @@
       </c>
       <c r="G3" s="33">
         <f>C3*D$54</f>
-        <v>1681.5</v>
+        <v>1106.25</v>
       </c>
       <c r="H3" s="33">
         <f t="shared" si="0"/>
-        <v>731.5</v>
+        <v>481.25</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>128</v>
@@ -48590,7 +48607,7 @@
       </c>
       <c r="H4" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>133</v>
@@ -48623,7 +48640,7 @@
       </c>
       <c r="H5" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>137</v>
@@ -48656,7 +48673,7 @@
       </c>
       <c r="H6" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>131</v>
@@ -48686,11 +48703,11 @@
       </c>
       <c r="G7" s="33">
         <f>C7*D$54</f>
-        <v>1757.5</v>
+        <v>1156.25</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="0"/>
-        <v>807.5</v>
+        <v>531.25</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>128</v>
@@ -48720,11 +48737,11 @@
       </c>
       <c r="G8" s="33">
         <f>C8*D$54</f>
-        <v>1653</v>
+        <v>1087.5</v>
       </c>
       <c r="H8" s="33">
         <f t="shared" si="0"/>
-        <v>703</v>
+        <v>462.5</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>138</v>
@@ -48754,11 +48771,11 @@
       </c>
       <c r="G9" s="33">
         <f>C9*D$54</f>
-        <v>1634</v>
+        <v>1075</v>
       </c>
       <c r="H9" s="33">
         <f t="shared" si="0"/>
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>132</v>
@@ -48791,7 +48808,7 @@
       </c>
       <c r="H10" s="82">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>132</v>
@@ -48824,7 +48841,7 @@
       </c>
       <c r="H11" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>134</v>
@@ -48854,11 +48871,11 @@
       </c>
       <c r="G12" s="33">
         <f>C12*D$54</f>
-        <v>1491.5</v>
+        <v>981.25</v>
       </c>
       <c r="H12" s="33">
         <f t="shared" si="0"/>
-        <v>541.5</v>
+        <v>356.25</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>129</v>
@@ -48891,7 +48908,7 @@
       </c>
       <c r="H13" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>142</v>
@@ -48921,11 +48938,11 @@
       </c>
       <c r="G14" s="33">
         <f>C14*D$54</f>
-        <v>1719.5</v>
+        <v>1131.25</v>
       </c>
       <c r="H14" s="33">
         <f t="shared" si="0"/>
-        <v>769.5</v>
+        <v>506.25</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>130</v>
@@ -48958,7 +48975,7 @@
       </c>
       <c r="H15" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>131</v>
@@ -48988,11 +49005,11 @@
       </c>
       <c r="G16" s="33">
         <f>C16*D$54</f>
-        <v>1757.5</v>
+        <v>1156.25</v>
       </c>
       <c r="H16" s="33">
         <f t="shared" si="0"/>
-        <v>807.5</v>
+        <v>531.25</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>127</v>
@@ -49022,11 +49039,11 @@
       </c>
       <c r="G17" s="33">
         <f>C17*D$54</f>
-        <v>1539</v>
+        <v>1012.5000000000001</v>
       </c>
       <c r="H17" s="33">
         <f t="shared" si="0"/>
-        <v>589</v>
+        <v>387.50000000000011</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>129</v>
@@ -49059,7 +49076,7 @@
       </c>
       <c r="H18" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>132</v>
@@ -49089,11 +49106,11 @@
       </c>
       <c r="G19" s="33">
         <f t="shared" ref="G19:G28" si="1">C19*D$54</f>
-        <v>1520</v>
+        <v>1000</v>
       </c>
       <c r="H19" s="33">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>375</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>138</v>
@@ -49123,11 +49140,11 @@
       </c>
       <c r="G20" s="33">
         <f t="shared" si="1"/>
-        <v>1681.5</v>
+        <v>1106.25</v>
       </c>
       <c r="H20" s="33">
         <f t="shared" si="0"/>
-        <v>731.5</v>
+        <v>481.25</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>127</v>
@@ -49157,11 +49174,11 @@
       </c>
       <c r="G21" s="33">
         <f t="shared" si="1"/>
-        <v>1729</v>
+        <v>1137.5</v>
       </c>
       <c r="H21" s="33">
         <f t="shared" si="0"/>
-        <v>779</v>
+        <v>512.5</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>217</v>
@@ -49191,11 +49208,11 @@
       </c>
       <c r="G22" s="33">
         <f t="shared" si="1"/>
-        <v>1548.5</v>
+        <v>1018.7499999999999</v>
       </c>
       <c r="H22" s="33">
         <f t="shared" si="0"/>
-        <v>598.5</v>
+        <v>393.74999999999989</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>128</v>
@@ -49225,11 +49242,11 @@
       </c>
       <c r="G23" s="33">
         <f t="shared" si="1"/>
-        <v>1586.5</v>
+        <v>1043.75</v>
       </c>
       <c r="H23" s="33">
         <f t="shared" si="0"/>
-        <v>636.5</v>
+        <v>418.75</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>132</v>
@@ -49259,11 +49276,11 @@
       </c>
       <c r="G24" s="33">
         <f t="shared" si="1"/>
-        <v>1482</v>
+        <v>975</v>
       </c>
       <c r="H24" s="33">
         <f t="shared" si="0"/>
-        <v>532</v>
+        <v>350</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>217</v>
@@ -49293,11 +49310,11 @@
       </c>
       <c r="G25" s="33">
         <f t="shared" si="1"/>
-        <v>1596</v>
+        <v>1050</v>
       </c>
       <c r="H25" s="33">
         <f t="shared" si="0"/>
-        <v>646</v>
+        <v>425</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>138</v>
@@ -49327,11 +49344,11 @@
       </c>
       <c r="G26" s="33">
         <f t="shared" si="1"/>
-        <v>1520</v>
+        <v>1000</v>
       </c>
       <c r="H26" s="33">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>375</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>220</v>
@@ -49361,11 +49378,11 @@
       </c>
       <c r="G27" s="33">
         <f t="shared" si="1"/>
-        <v>1463</v>
+        <v>962.5</v>
       </c>
       <c r="H27" s="33">
         <f t="shared" si="0"/>
-        <v>513</v>
+        <v>337.5</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>219</v>
@@ -49395,11 +49412,11 @@
       </c>
       <c r="G28" s="33">
         <f t="shared" si="1"/>
-        <v>1520</v>
+        <v>1000</v>
       </c>
       <c r="H28" s="33">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>375</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>219</v>
@@ -49432,7 +49449,7 @@
       </c>
       <c r="H29" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>217</v>
@@ -49462,11 +49479,11 @@
       </c>
       <c r="G30" s="33">
         <f>C30*D$54</f>
-        <v>1795.5</v>
+        <v>1181.25</v>
       </c>
       <c r="H30" s="33">
         <f t="shared" si="0"/>
-        <v>845.5</v>
+        <v>556.25</v>
       </c>
       <c r="I30" s="16" t="s">
         <v>142</v>
@@ -49496,11 +49513,11 @@
       </c>
       <c r="G31" s="33">
         <f>C31*D$54</f>
-        <v>1681.5</v>
+        <v>1106.25</v>
       </c>
       <c r="H31" s="33">
         <f t="shared" si="0"/>
-        <v>731.5</v>
+        <v>481.25</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>511</v>
@@ -49530,11 +49547,11 @@
       </c>
       <c r="G32" s="33">
         <f>C32*D$54</f>
-        <v>1520</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="33">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>375</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>142</v>
@@ -49564,11 +49581,11 @@
       </c>
       <c r="G33" s="33">
         <f>C33*D$54</f>
-        <v>1586.5</v>
+        <v>1043.75</v>
       </c>
       <c r="H33" s="33">
         <f t="shared" si="0"/>
-        <v>636.5</v>
+        <v>418.75</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>133</v>
@@ -49601,7 +49618,7 @@
       </c>
       <c r="H34" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>221</v>
@@ -49631,11 +49648,11 @@
       </c>
       <c r="G35" s="33">
         <f>C35*D$54</f>
-        <v>1700.5</v>
+        <v>1118.75</v>
       </c>
       <c r="H35" s="33">
         <f t="shared" si="0"/>
-        <v>750.5</v>
+        <v>493.75</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>135</v>
@@ -49668,7 +49685,7 @@
       </c>
       <c r="H36" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>142</v>
@@ -49698,11 +49715,11 @@
       </c>
       <c r="G37" s="33">
         <f>C37*D$54</f>
-        <v>1567.5</v>
+        <v>1031.25</v>
       </c>
       <c r="H37" s="33">
         <f t="shared" si="0"/>
-        <v>617.5</v>
+        <v>406.25</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>217</v>
@@ -49732,11 +49749,11 @@
       </c>
       <c r="G38" s="33">
         <f>C38*D$54</f>
-        <v>1662.5</v>
+        <v>1093.75</v>
       </c>
       <c r="H38" s="33">
         <f t="shared" si="0"/>
-        <v>712.5</v>
+        <v>468.75</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>219</v>
@@ -49769,7 +49786,7 @@
       </c>
       <c r="H39" s="33">
         <f t="shared" si="0"/>
-        <v>-950</v>
+        <v>-625</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>143</v>
@@ -50002,12 +50019,12 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="31" t="s">
-        <v>250</v>
+        <v>690</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="32">
-        <f>D53*3.8</f>
-        <v>950</v>
+        <f>D53*2.5</f>
+        <v>625</v>
       </c>
       <c r="E54" s="33"/>
       <c r="F54" s="36"/>
@@ -50024,7 +50041,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="33">
         <f>SUM(H2:H41)</f>
-        <v>5966</v>
+        <v>3925</v>
       </c>
       <c r="E55" s="33"/>
       <c r="F55" s="36"/>
@@ -50041,7 +50058,7 @@
       <c r="C56" s="6"/>
       <c r="D56" s="16">
         <f>D55/D51*100</f>
-        <v>23.864000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="36"/>
@@ -50086,7 +50103,7 @@
   <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53595,8 +53612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53664,11 +53681,11 @@
       </c>
       <c r="G2" s="33">
         <f>C2*D$32</f>
-        <v>1618.75</v>
+        <v>1156.25</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H17" si="0">G2-D$32</f>
-        <v>743.75</v>
+        <v>531.25</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>131</v>
@@ -53698,11 +53715,11 @@
       </c>
       <c r="G3" s="33">
         <f>C3*D$32</f>
-        <v>1496.25</v>
+        <v>1068.75</v>
       </c>
       <c r="H3" s="33">
         <f t="shared" si="0"/>
-        <v>621.25</v>
+        <v>443.75</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>129</v>
@@ -53735,7 +53752,7 @@
       </c>
       <c r="H4" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>131</v>
@@ -53765,11 +53782,11 @@
       </c>
       <c r="G5" s="33">
         <f>C5*D$32</f>
-        <v>1408.75</v>
+        <v>1006.2500000000001</v>
       </c>
       <c r="H5" s="33">
         <f t="shared" si="0"/>
-        <v>533.75</v>
+        <v>381.25000000000011</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>134</v>
@@ -53799,11 +53816,11 @@
       </c>
       <c r="G6" s="33">
         <f>C6*D$32</f>
-        <v>1295</v>
+        <v>925</v>
       </c>
       <c r="H6" s="33">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>223</v>
@@ -53833,11 +53850,11 @@
       </c>
       <c r="G7" s="33">
         <f>C7*D$32</f>
-        <v>1662.5</v>
+        <v>1187.5</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="0"/>
-        <v>787.5</v>
+        <v>562.5</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>224</v>
@@ -53870,7 +53887,7 @@
       </c>
       <c r="H8" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>138</v>
@@ -53900,11 +53917,11 @@
       </c>
       <c r="G9" s="33">
         <f>C9*D$32</f>
-        <v>1645</v>
+        <v>1175</v>
       </c>
       <c r="H9" s="33">
         <f t="shared" si="0"/>
-        <v>770</v>
+        <v>550</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>129</v>
@@ -53934,11 +53951,11 @@
       </c>
       <c r="G10" s="33">
         <f>C10*D$32</f>
-        <v>1443.75</v>
+        <v>1031.25</v>
       </c>
       <c r="H10" s="33">
         <f t="shared" si="0"/>
-        <v>568.75</v>
+        <v>406.25</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>138</v>
@@ -53968,11 +53985,11 @@
       </c>
       <c r="G11" s="33">
         <f>C11*D$32</f>
-        <v>1190</v>
+        <v>850.00000000000011</v>
       </c>
       <c r="H11" s="33">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>225.00000000000011</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>129</v>
@@ -54005,7 +54022,7 @@
       </c>
       <c r="H12" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>131</v>
@@ -54035,11 +54052,11 @@
       </c>
       <c r="G13" s="33">
         <f>C13*D$32</f>
-        <v>1540</v>
+        <v>1100</v>
       </c>
       <c r="H13" s="33">
         <f t="shared" si="0"/>
-        <v>665</v>
+        <v>475</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>140</v>
@@ -54069,11 +54086,11 @@
       </c>
       <c r="G14" s="33">
         <f>C14*D$32</f>
-        <v>1452.5</v>
+        <v>1037.5</v>
       </c>
       <c r="H14" s="33">
         <f t="shared" si="0"/>
-        <v>577.5</v>
+        <v>412.5</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>220</v>
@@ -54106,7 +54123,7 @@
       </c>
       <c r="H15" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>138</v>
@@ -54136,11 +54153,11 @@
       </c>
       <c r="G16" s="33">
         <f>C16*D$32</f>
-        <v>1408.75</v>
+        <v>1006.2500000000001</v>
       </c>
       <c r="H16" s="33">
         <f t="shared" si="0"/>
-        <v>533.75</v>
+        <v>381.25000000000011</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>141</v>
@@ -54173,7 +54190,7 @@
       </c>
       <c r="H17" s="33">
         <f t="shared" si="0"/>
-        <v>-875</v>
+        <v>-625</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>133</v>
@@ -54398,8 +54415,8 @@
         <v>250</v>
       </c>
       <c r="D32" s="32">
-        <f>D31*3.5</f>
-        <v>875</v>
+        <f>D31*2.5</f>
+        <v>625</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="36"/>
@@ -54415,7 +54432,7 @@
       </c>
       <c r="D33" s="33">
         <f>SUM(H2:H19)</f>
-        <v>2161.25</v>
+        <v>1543.75</v>
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="36"/>
@@ -54431,7 +54448,7 @@
       </c>
       <c r="D34" s="16">
         <f>D33/D29*100</f>
-        <v>8.6449999999999996</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="36"/>

--- a/tecnica_analise/2022/EXPECTED-OVER-2022.xlsx
+++ b/tecnica_analise/2022/EXPECTED-OVER-2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="21" r:id="rId1"/>
@@ -14719,8 +14719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14728,7 +14728,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="9.140625" style="6"/>
-    <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="19" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -17371,8 +17371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35428,7 +35428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>

--- a/tecnica_analise/2022/EXPECTED-OVER-2022.xlsx
+++ b/tecnica_analise/2022/EXPECTED-OVER-2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="21" r:id="rId1"/>
@@ -4307,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N196"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="H150" sqref="H150"/>
+    <sheetView tabSelected="1" topLeftCell="D172" workbookViewId="0">
+      <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="G2" s="33">
         <f>C2*D$187</f>
-        <v>4825</v>
+        <v>3860</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H33" si="0">G2-D$187</f>
-        <v>2325</v>
+        <v>1860</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>218</v>
@@ -4420,11 +4420,11 @@
       </c>
       <c r="G3" s="33">
         <f>C3*D$187</f>
-        <v>4600</v>
+        <v>3680</v>
       </c>
       <c r="H3" s="33">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>1680</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>128</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="H4" s="33">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>131</v>
@@ -4495,11 +4495,11 @@
       </c>
       <c r="G5" s="33">
         <f t="shared" ref="G5:G12" si="1">C5*D$187</f>
-        <v>4175</v>
+        <v>3340</v>
       </c>
       <c r="H5" s="33">
         <f t="shared" si="0"/>
-        <v>1675</v>
+        <v>1340</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>219</v>
@@ -4533,11 +4533,11 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>3875</v>
+        <v>3100</v>
       </c>
       <c r="H6" s="33">
         <f t="shared" si="0"/>
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>128</v>
@@ -4571,11 +4571,11 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>4350</v>
+        <v>3480</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="0"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>134</v>
@@ -4609,11 +4609,11 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>4600</v>
+        <v>3680</v>
       </c>
       <c r="H8" s="33">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>1680</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>131</v>
@@ -4647,11 +4647,11 @@
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>2880</v>
       </c>
       <c r="H9" s="33">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>880</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>135</v>
@@ -4685,11 +4685,11 @@
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>4050.0000000000005</v>
+        <v>3240</v>
       </c>
       <c r="H10" s="33">
         <f t="shared" si="0"/>
-        <v>1550.0000000000005</v>
+        <v>1240</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>221</v>
@@ -4723,11 +4723,11 @@
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>4400</v>
+        <v>3520</v>
       </c>
       <c r="H11" s="33">
         <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>1520</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>138</v>
@@ -4761,11 +4761,11 @@
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>4750</v>
+        <v>3800</v>
       </c>
       <c r="H12" s="33">
         <f t="shared" si="0"/>
-        <v>2250</v>
+        <v>1800</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>138</v>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="H13" s="33">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>136</v>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="H14" s="33">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>134</v>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="H15" s="33">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>217</v>
@@ -4910,11 +4910,11 @@
       </c>
       <c r="G16" s="33">
         <f>C16*D$187</f>
-        <v>4050.0000000000005</v>
+        <v>3240</v>
       </c>
       <c r="H16" s="33">
         <f t="shared" si="0"/>
-        <v>1550.0000000000005</v>
+        <v>1240</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>138</v>
@@ -4948,11 +4948,11 @@
       </c>
       <c r="G17" s="33">
         <f>C17*D$187</f>
-        <v>4225</v>
+        <v>3380</v>
       </c>
       <c r="H17" s="33">
         <f t="shared" si="0"/>
-        <v>1725</v>
+        <v>1380</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>138</v>
@@ -4986,11 +4986,11 @@
       </c>
       <c r="G18" s="33">
         <f>C18*D$187</f>
-        <v>4300</v>
+        <v>3440</v>
       </c>
       <c r="H18" s="33">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>133</v>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="H19" s="33">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>129</v>
@@ -5061,11 +5061,11 @@
       </c>
       <c r="G20" s="33">
         <f t="shared" ref="G20:G25" si="2">C20*D$187</f>
-        <v>4300</v>
+        <v>3440</v>
       </c>
       <c r="H20" s="33">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>222</v>
@@ -5099,11 +5099,11 @@
       </c>
       <c r="G21" s="33">
         <f t="shared" si="2"/>
-        <v>4525</v>
+        <v>3620</v>
       </c>
       <c r="H21" s="33">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>1620</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>131</v>
@@ -5137,11 +5137,11 @@
       </c>
       <c r="G22" s="33">
         <f t="shared" si="2"/>
-        <v>4250</v>
+        <v>3400</v>
       </c>
       <c r="H22" s="33">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>130</v>
@@ -5175,11 +5175,11 @@
       </c>
       <c r="G23" s="33">
         <f t="shared" si="2"/>
-        <v>3950</v>
+        <v>3160</v>
       </c>
       <c r="H23" s="33">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>1160</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>127</v>
@@ -5213,11 +5213,11 @@
       </c>
       <c r="G24" s="33">
         <f t="shared" si="2"/>
-        <v>3725</v>
+        <v>2980</v>
       </c>
       <c r="H24" s="33">
         <f t="shared" si="0"/>
-        <v>1225</v>
+        <v>980</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>127</v>
@@ -5251,11 +5251,11 @@
       </c>
       <c r="G25" s="33">
         <f t="shared" si="2"/>
-        <v>4275</v>
+        <v>3420</v>
       </c>
       <c r="H25" s="33">
         <f t="shared" si="0"/>
-        <v>1775</v>
+        <v>1420</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>135</v>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="H26" s="33">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>220</v>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="H27" s="33">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>140</v>
@@ -5363,11 +5363,11 @@
       </c>
       <c r="G28" s="33">
         <f t="shared" ref="G28:G40" si="3">C28*D$187</f>
-        <v>4600</v>
+        <v>3680</v>
       </c>
       <c r="H28" s="33">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>1680</v>
       </c>
       <c r="I28" s="16" t="s">
         <v>143</v>
@@ -5401,11 +5401,11 @@
       </c>
       <c r="G29" s="33">
         <f t="shared" si="3"/>
-        <v>4525</v>
+        <v>3620</v>
       </c>
       <c r="H29" s="33">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>1620</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>138</v>
@@ -5439,11 +5439,11 @@
       </c>
       <c r="G30" s="33">
         <f t="shared" si="3"/>
-        <v>4375</v>
+        <v>3500</v>
       </c>
       <c r="H30" s="33">
         <f t="shared" si="0"/>
-        <v>1875</v>
+        <v>1500</v>
       </c>
       <c r="I30" s="16" t="s">
         <v>134</v>
@@ -5477,11 +5477,11 @@
       </c>
       <c r="G31" s="33">
         <f t="shared" si="3"/>
-        <v>4875</v>
+        <v>3900</v>
       </c>
       <c r="H31" s="33">
         <f t="shared" si="0"/>
-        <v>2375</v>
+        <v>1900</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>142</v>
@@ -5515,11 +5515,11 @@
       </c>
       <c r="G32" s="33">
         <f t="shared" si="3"/>
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="H32" s="33">
         <f t="shared" si="0"/>
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>133</v>
@@ -5553,11 +5553,11 @@
       </c>
       <c r="G33" s="33">
         <f t="shared" si="3"/>
-        <v>4600</v>
+        <v>3680</v>
       </c>
       <c r="H33" s="33">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>1680</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>127</v>
@@ -5591,11 +5591,11 @@
       </c>
       <c r="G34" s="33">
         <f t="shared" si="3"/>
-        <v>4825</v>
+        <v>3860</v>
       </c>
       <c r="H34" s="33">
         <f t="shared" ref="H34:H65" si="4">G34-D$187</f>
-        <v>2325</v>
+        <v>1860</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>134</v>
@@ -5629,11 +5629,11 @@
       </c>
       <c r="G35" s="33">
         <f t="shared" si="3"/>
-        <v>4050.0000000000005</v>
+        <v>3240</v>
       </c>
       <c r="H35" s="33">
         <f t="shared" si="4"/>
-        <v>1550.0000000000005</v>
+        <v>1240</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>137</v>
@@ -5667,11 +5667,11 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="3"/>
-        <v>4074.9999999999995</v>
+        <v>3260</v>
       </c>
       <c r="H36" s="33">
         <f t="shared" si="4"/>
-        <v>1574.9999999999995</v>
+        <v>1260</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>224</v>
@@ -5705,11 +5705,11 @@
       </c>
       <c r="G37" s="33">
         <f t="shared" si="3"/>
-        <v>4450</v>
+        <v>3560</v>
       </c>
       <c r="H37" s="33">
         <f t="shared" si="4"/>
-        <v>1950</v>
+        <v>1560</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>137</v>
@@ -5743,11 +5743,11 @@
       </c>
       <c r="G38" s="33">
         <f t="shared" si="3"/>
-        <v>3875</v>
+        <v>3100</v>
       </c>
       <c r="H38" s="33">
         <f t="shared" si="4"/>
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>219</v>
@@ -5781,11 +5781,11 @@
       </c>
       <c r="G39" s="33">
         <f t="shared" si="3"/>
-        <v>4475</v>
+        <v>3580</v>
       </c>
       <c r="H39" s="33">
         <f t="shared" si="4"/>
-        <v>1975</v>
+        <v>1580</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>138</v>
@@ -5819,11 +5819,11 @@
       </c>
       <c r="G40" s="33">
         <f t="shared" si="3"/>
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="H40" s="33">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>342</v>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="H41" s="33">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>142</v>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="H42" s="33">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I42" s="16" t="s">
         <v>142</v>
@@ -5931,11 +5931,11 @@
       </c>
       <c r="G43" s="33">
         <f>C43*D$187</f>
-        <v>4700</v>
+        <v>3760</v>
       </c>
       <c r="H43" s="33">
         <f t="shared" si="4"/>
-        <v>2200</v>
+        <v>1760</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>133</v>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="H44" s="33">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>128</v>
@@ -6006,11 +6006,11 @@
       </c>
       <c r="G45" s="33">
         <f>C45*D$187</f>
-        <v>4125</v>
+        <v>3300</v>
       </c>
       <c r="H45" s="33">
         <f t="shared" si="4"/>
-        <v>1625</v>
+        <v>1300</v>
       </c>
       <c r="I45" s="16" t="s">
         <v>138</v>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="H46" s="33">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I46" s="16" t="s">
         <v>143</v>
@@ -6081,11 +6081,11 @@
       </c>
       <c r="G47" s="33">
         <f>C47*D$187</f>
-        <v>4450</v>
+        <v>3560</v>
       </c>
       <c r="H47" s="33">
         <f t="shared" si="4"/>
-        <v>1950</v>
+        <v>1560</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>138</v>
@@ -6119,11 +6119,11 @@
       </c>
       <c r="G48" s="33">
         <f>C48*D$187</f>
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="H48" s="33">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>133</v>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="H49" s="33">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>138</v>
@@ -6194,11 +6194,11 @@
       </c>
       <c r="G50" s="33">
         <f>C50*D$187</f>
-        <v>4175</v>
+        <v>3340</v>
       </c>
       <c r="H50" s="33">
         <f t="shared" si="4"/>
-        <v>1675</v>
+        <v>1340</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>143</v>
@@ -6232,11 +6232,11 @@
       </c>
       <c r="G51" s="33">
         <f>C51*D$187</f>
-        <v>4125</v>
+        <v>3300</v>
       </c>
       <c r="H51" s="33">
         <f t="shared" si="4"/>
-        <v>1625</v>
+        <v>1300</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>143</v>
@@ -6270,11 +6270,11 @@
       </c>
       <c r="G52" s="33">
         <f>C52*D$187</f>
-        <v>4650</v>
+        <v>3720</v>
       </c>
       <c r="H52" s="33">
         <f t="shared" si="4"/>
-        <v>2150</v>
+        <v>1720</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>224</v>
@@ -6308,11 +6308,11 @@
       </c>
       <c r="G53" s="33">
         <f>C53*D$187</f>
-        <v>4400</v>
+        <v>3520</v>
       </c>
       <c r="H53" s="33">
         <f t="shared" si="4"/>
-        <v>1900</v>
+        <v>1520</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>143</v>
@@ -6346,11 +6346,11 @@
       </c>
       <c r="G54" s="33">
         <f>C54*D$187</f>
-        <v>4425</v>
+        <v>3540</v>
       </c>
       <c r="H54" s="33">
         <f t="shared" si="4"/>
-        <v>1925</v>
+        <v>1540</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>128</v>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="H55" s="33">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>133</v>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="H56" s="33">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>137</v>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="H57" s="33">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>131</v>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="G58" s="33">
         <f>C58*D$187</f>
-        <v>4625</v>
+        <v>3700</v>
       </c>
       <c r="H58" s="33">
         <f t="shared" si="4"/>
-        <v>2125</v>
+        <v>1700</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>128</v>
@@ -6533,11 +6533,11 @@
       </c>
       <c r="G59" s="33">
         <f>C59*D$187</f>
-        <v>4350</v>
+        <v>3480</v>
       </c>
       <c r="H59" s="33">
         <f t="shared" si="4"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>138</v>
@@ -6571,11 +6571,11 @@
       </c>
       <c r="G60" s="33">
         <f>C60*D$187</f>
-        <v>4300</v>
+        <v>3440</v>
       </c>
       <c r="H60" s="33">
         <f t="shared" si="4"/>
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>132</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H61" s="33">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>134</v>
@@ -6646,11 +6646,11 @@
       </c>
       <c r="G62" s="33">
         <f>C62*D$187</f>
-        <v>3925</v>
+        <v>3140</v>
       </c>
       <c r="H62" s="33">
         <f t="shared" si="4"/>
-        <v>1425</v>
+        <v>1140</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>129</v>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="H63" s="33">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I63" s="16" t="s">
         <v>142</v>
@@ -6721,11 +6721,11 @@
       </c>
       <c r="G64" s="33">
         <f>C64*D$187</f>
-        <v>4525</v>
+        <v>3620</v>
       </c>
       <c r="H64" s="33">
         <f t="shared" si="4"/>
-        <v>2025</v>
+        <v>1620</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>130</v>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="H65" s="33">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>131</v>
@@ -6796,11 +6796,11 @@
       </c>
       <c r="G66" s="33">
         <f>C66*D$187</f>
-        <v>4625</v>
+        <v>3700</v>
       </c>
       <c r="H66" s="33">
         <f t="shared" ref="H66:H97" si="5">G66-D$187</f>
-        <v>2125</v>
+        <v>1700</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>127</v>
@@ -6834,11 +6834,11 @@
       </c>
       <c r="G67" s="33">
         <f>C67*D$187</f>
-        <v>4050.0000000000005</v>
+        <v>3240</v>
       </c>
       <c r="H67" s="33">
         <f t="shared" si="5"/>
-        <v>1550.0000000000005</v>
+        <v>1240</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>129</v>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="H68" s="33">
         <f t="shared" si="5"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>132</v>
@@ -6909,11 +6909,11 @@
       </c>
       <c r="G69" s="33">
         <f t="shared" ref="G69:G78" si="6">C69*D$187</f>
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="H69" s="33">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>138</v>
@@ -6947,11 +6947,11 @@
       </c>
       <c r="G70" s="33">
         <f t="shared" si="6"/>
-        <v>4425</v>
+        <v>3540</v>
       </c>
       <c r="H70" s="33">
         <f t="shared" si="5"/>
-        <v>1925</v>
+        <v>1540</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>127</v>
@@ -6985,11 +6985,11 @@
       </c>
       <c r="G71" s="33">
         <f t="shared" si="6"/>
-        <v>4550</v>
+        <v>3640</v>
       </c>
       <c r="H71" s="33">
         <f t="shared" si="5"/>
-        <v>2050</v>
+        <v>1640</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>217</v>
@@ -7023,11 +7023,11 @@
       </c>
       <c r="G72" s="33">
         <f t="shared" si="6"/>
-        <v>4074.9999999999995</v>
+        <v>3260</v>
       </c>
       <c r="H72" s="33">
         <f t="shared" si="5"/>
-        <v>1574.9999999999995</v>
+        <v>1260</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>128</v>
@@ -7061,11 +7061,11 @@
       </c>
       <c r="G73" s="33">
         <f t="shared" si="6"/>
-        <v>4175</v>
+        <v>3340</v>
       </c>
       <c r="H73" s="33">
         <f t="shared" si="5"/>
-        <v>1675</v>
+        <v>1340</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>132</v>
@@ -7099,11 +7099,11 @@
       </c>
       <c r="G74" s="33">
         <f t="shared" si="6"/>
-        <v>3900</v>
+        <v>3120</v>
       </c>
       <c r="H74" s="33">
         <f t="shared" si="5"/>
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>217</v>
@@ -7137,11 +7137,11 @@
       </c>
       <c r="G75" s="33">
         <f t="shared" si="6"/>
-        <v>4200</v>
+        <v>3360</v>
       </c>
       <c r="H75" s="33">
         <f t="shared" si="5"/>
-        <v>1700</v>
+        <v>1360</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>138</v>
@@ -7175,11 +7175,11 @@
       </c>
       <c r="G76" s="33">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="H76" s="33">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>220</v>
@@ -7213,11 +7213,11 @@
       </c>
       <c r="G77" s="33">
         <f t="shared" si="6"/>
-        <v>3850</v>
+        <v>3080</v>
       </c>
       <c r="H77" s="33">
         <f t="shared" si="5"/>
-        <v>1350</v>
+        <v>1080</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>219</v>
@@ -7251,11 +7251,11 @@
       </c>
       <c r="G78" s="33">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="H78" s="33">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>219</v>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="H79" s="33">
         <f t="shared" si="5"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I79" s="16" t="s">
         <v>217</v>
@@ -7326,11 +7326,11 @@
       </c>
       <c r="G80" s="33">
         <f>C80*D$187</f>
-        <v>4725</v>
+        <v>3780</v>
       </c>
       <c r="H80" s="33">
         <f t="shared" si="5"/>
-        <v>2225</v>
+        <v>1780</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>142</v>
@@ -7364,11 +7364,11 @@
       </c>
       <c r="G81" s="33">
         <f>C81*D$187</f>
-        <v>4425</v>
+        <v>3540</v>
       </c>
       <c r="H81" s="33">
         <f t="shared" si="5"/>
-        <v>1925</v>
+        <v>1540</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>511</v>
@@ -7402,11 +7402,11 @@
       </c>
       <c r="G82" s="33">
         <f>C82*D$187</f>
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="H82" s="33">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>142</v>
@@ -7440,11 +7440,11 @@
       </c>
       <c r="G83" s="33">
         <f>C83*D$187</f>
-        <v>4175</v>
+        <v>3340</v>
       </c>
       <c r="H83" s="33">
         <f t="shared" si="5"/>
-        <v>1675</v>
+        <v>1340</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>133</v>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="H84" s="33">
         <f t="shared" si="5"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>221</v>
@@ -7515,11 +7515,11 @@
       </c>
       <c r="G85" s="33">
         <f>C85*D$187</f>
-        <v>4475</v>
+        <v>3580</v>
       </c>
       <c r="H85" s="33">
         <f t="shared" si="5"/>
-        <v>1975</v>
+        <v>1580</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>135</v>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="H86" s="33">
         <f t="shared" si="5"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>142</v>
@@ -7590,11 +7590,11 @@
       </c>
       <c r="G87" s="33">
         <f>C87*D$187</f>
-        <v>4125</v>
+        <v>3300</v>
       </c>
       <c r="H87" s="33">
         <f t="shared" si="5"/>
-        <v>1625</v>
+        <v>1300</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>217</v>
@@ -7628,11 +7628,11 @@
       </c>
       <c r="G88" s="33">
         <f>C88*D$187</f>
-        <v>4375</v>
+        <v>3500</v>
       </c>
       <c r="H88" s="33">
         <f t="shared" si="5"/>
-        <v>1875</v>
+        <v>1500</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>219</v>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="H89" s="33">
         <f t="shared" si="5"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>143</v>
@@ -7703,11 +7703,11 @@
       </c>
       <c r="G90" s="33">
         <f>C90*D$187</f>
-        <v>4625</v>
+        <v>3700</v>
       </c>
       <c r="H90" s="33">
         <f t="shared" si="5"/>
-        <v>2125</v>
+        <v>1700</v>
       </c>
       <c r="I90" s="16" t="s">
         <v>131</v>
@@ -7741,11 +7741,11 @@
       </c>
       <c r="G91" s="33">
         <f>C91*D$187</f>
-        <v>4275</v>
+        <v>3420</v>
       </c>
       <c r="H91" s="33">
         <f t="shared" si="5"/>
-        <v>1775</v>
+        <v>1420</v>
       </c>
       <c r="I91" s="16" t="s">
         <v>129</v>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="H92" s="33">
         <f t="shared" si="5"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>131</v>
@@ -7816,11 +7816,11 @@
       </c>
       <c r="G93" s="33">
         <f>C93*D$187</f>
-        <v>4025.0000000000005</v>
+        <v>3220</v>
       </c>
       <c r="H93" s="33">
         <f t="shared" si="5"/>
-        <v>1525.0000000000005</v>
+        <v>1220</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>134</v>
@@ -7854,11 +7854,11 @@
       </c>
       <c r="G94" s="33">
         <f>C94*D$187</f>
-        <v>3700</v>
+        <v>2960</v>
       </c>
       <c r="H94" s="33">
         <f t="shared" si="5"/>
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="I94" s="16" t="s">
         <v>223</v>
@@ -7892,11 +7892,11 @@
       </c>
       <c r="G95" s="33">
         <f>C95*D$187</f>
-        <v>4750</v>
+        <v>3800</v>
       </c>
       <c r="H95" s="33">
         <f t="shared" si="5"/>
-        <v>2250</v>
+        <v>1800</v>
       </c>
       <c r="I95" s="16" t="s">
         <v>224</v>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="H96" s="33">
         <f t="shared" si="5"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I96" s="16" t="s">
         <v>138</v>
@@ -7967,11 +7967,11 @@
       </c>
       <c r="G97" s="33">
         <f>C97*D$187</f>
-        <v>4700</v>
+        <v>3760</v>
       </c>
       <c r="H97" s="33">
         <f t="shared" si="5"/>
-        <v>2200</v>
+        <v>1760</v>
       </c>
       <c r="I97" s="16" t="s">
         <v>129</v>
@@ -8005,11 +8005,11 @@
       </c>
       <c r="G98" s="33">
         <f>C98*D$187</f>
-        <v>4125</v>
+        <v>3300</v>
       </c>
       <c r="H98" s="33">
         <f t="shared" ref="H98:H129" si="7">G98-D$187</f>
-        <v>1625</v>
+        <v>1300</v>
       </c>
       <c r="I98" s="16" t="s">
         <v>138</v>
@@ -8043,11 +8043,11 @@
       </c>
       <c r="G99" s="33">
         <f>C99*D$187</f>
-        <v>3400.0000000000005</v>
+        <v>2720</v>
       </c>
       <c r="H99" s="33">
         <f t="shared" si="7"/>
-        <v>900.00000000000045</v>
+        <v>720</v>
       </c>
       <c r="I99" s="16" t="s">
         <v>129</v>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="H100" s="33">
         <f t="shared" si="7"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>131</v>
@@ -8118,11 +8118,11 @@
       </c>
       <c r="G101" s="33">
         <f>C101*D$187</f>
-        <v>4400</v>
+        <v>3520</v>
       </c>
       <c r="H101" s="33">
         <f t="shared" si="7"/>
-        <v>1900</v>
+        <v>1520</v>
       </c>
       <c r="I101" s="16" t="s">
         <v>140</v>
@@ -8156,11 +8156,11 @@
       </c>
       <c r="G102" s="33">
         <f>C102*D$187</f>
-        <v>4150</v>
+        <v>3320</v>
       </c>
       <c r="H102" s="33">
         <f t="shared" si="7"/>
-        <v>1650</v>
+        <v>1320</v>
       </c>
       <c r="I102" s="16" t="s">
         <v>220</v>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="H103" s="33">
         <f t="shared" si="7"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I103" s="16" t="s">
         <v>138</v>
@@ -8231,11 +8231,11 @@
       </c>
       <c r="G104" s="33">
         <f>C104*D$187</f>
-        <v>4025.0000000000005</v>
+        <v>3220</v>
       </c>
       <c r="H104" s="33">
         <f t="shared" si="7"/>
-        <v>1525.0000000000005</v>
+        <v>1220</v>
       </c>
       <c r="I104" s="16" t="s">
         <v>141</v>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="H105" s="33">
         <f t="shared" si="7"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I105" s="16" t="s">
         <v>133</v>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="H106" s="33">
         <f t="shared" si="7"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>128</v>
@@ -8343,11 +8343,11 @@
       </c>
       <c r="G107" s="33">
         <f t="shared" ref="G107:G112" si="8">C107*D$187</f>
-        <v>4275</v>
+        <v>3420</v>
       </c>
       <c r="H107" s="33">
         <f t="shared" si="7"/>
-        <v>1775</v>
+        <v>1420</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>143</v>
@@ -8381,11 +8381,11 @@
       </c>
       <c r="G108" s="33">
         <f t="shared" si="8"/>
-        <v>4125</v>
+        <v>3300</v>
       </c>
       <c r="H108" s="33">
         <f t="shared" si="7"/>
-        <v>1625</v>
+        <v>1300</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>133</v>
@@ -8419,11 +8419,11 @@
       </c>
       <c r="G109" s="33">
         <f t="shared" si="8"/>
-        <v>4375</v>
+        <v>3500</v>
       </c>
       <c r="H109" s="33">
         <f t="shared" si="7"/>
-        <v>1875</v>
+        <v>1500</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>127</v>
@@ -8457,11 +8457,11 @@
       </c>
       <c r="G110" s="33">
         <f t="shared" si="8"/>
-        <v>4350</v>
+        <v>3480</v>
       </c>
       <c r="H110" s="33">
         <f t="shared" si="7"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>133</v>
@@ -8495,11 +8495,11 @@
       </c>
       <c r="G111" s="33">
         <f t="shared" si="8"/>
-        <v>4475</v>
+        <v>3580</v>
       </c>
       <c r="H111" s="33">
         <f t="shared" si="7"/>
-        <v>1975</v>
+        <v>1580</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>132</v>
@@ -8533,11 +8533,11 @@
       </c>
       <c r="G112" s="33">
         <f t="shared" si="8"/>
-        <v>4775</v>
+        <v>3820</v>
       </c>
       <c r="H112" s="33">
         <f t="shared" si="7"/>
-        <v>2275</v>
+        <v>1820</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>127</v>
@@ -8574,7 +8574,7 @@
       </c>
       <c r="H113" s="33">
         <f t="shared" si="7"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I113" s="16" t="s">
         <v>128</v>
@@ -8608,11 +8608,11 @@
       </c>
       <c r="G114" s="33">
         <f t="shared" ref="G114:G120" si="9">C114*D$187</f>
-        <v>4300</v>
+        <v>3440</v>
       </c>
       <c r="H114" s="33">
         <f t="shared" si="7"/>
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>136</v>
@@ -8646,11 +8646,11 @@
       </c>
       <c r="G115" s="33">
         <f t="shared" si="9"/>
-        <v>4625</v>
+        <v>3700</v>
       </c>
       <c r="H115" s="33">
         <f t="shared" si="7"/>
-        <v>2125</v>
+        <v>1700</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>134</v>
@@ -8684,11 +8684,11 @@
       </c>
       <c r="G116" s="33">
         <f t="shared" si="9"/>
-        <v>4350</v>
+        <v>3480</v>
       </c>
       <c r="H116" s="33">
         <f t="shared" si="7"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>138</v>
@@ -8722,11 +8722,11 @@
       </c>
       <c r="G117" s="33">
         <f t="shared" si="9"/>
-        <v>4675</v>
+        <v>3740</v>
       </c>
       <c r="H117" s="33">
         <f t="shared" si="7"/>
-        <v>2175</v>
+        <v>1740</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>138</v>
@@ -8760,11 +8760,11 @@
       </c>
       <c r="G118" s="33">
         <f t="shared" si="9"/>
-        <v>4625</v>
+        <v>3700</v>
       </c>
       <c r="H118" s="33">
         <f t="shared" si="7"/>
-        <v>2125</v>
+        <v>1700</v>
       </c>
       <c r="I118" s="16" t="s">
         <v>128</v>
@@ -8798,11 +8798,11 @@
       </c>
       <c r="G119" s="33">
         <f t="shared" si="9"/>
-        <v>4725</v>
+        <v>3780</v>
       </c>
       <c r="H119" s="33">
         <f t="shared" si="7"/>
-        <v>2225</v>
+        <v>1780</v>
       </c>
       <c r="I119" s="16" t="s">
         <v>138</v>
@@ -8836,11 +8836,11 @@
       </c>
       <c r="G120" s="33">
         <f t="shared" si="9"/>
-        <v>4200</v>
+        <v>3360</v>
       </c>
       <c r="H120" s="33">
         <f t="shared" si="7"/>
-        <v>1700</v>
+        <v>1360</v>
       </c>
       <c r="I120" s="16" t="s">
         <v>143</v>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="H121" s="33">
         <f t="shared" si="7"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>128</v>
@@ -8914,7 +8914,7 @@
       </c>
       <c r="H122" s="33">
         <f t="shared" si="7"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>131</v>
@@ -8948,11 +8948,11 @@
       </c>
       <c r="G123" s="33">
         <f>C123*D$187</f>
-        <v>4175</v>
+        <v>3340</v>
       </c>
       <c r="H123" s="33">
         <f t="shared" si="7"/>
-        <v>1675</v>
+        <v>1340</v>
       </c>
       <c r="I123" s="6" t="s">
         <v>132</v>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="H124" s="33">
         <f t="shared" si="7"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>143</v>
@@ -9023,11 +9023,11 @@
       </c>
       <c r="G125" s="33">
         <f t="shared" ref="G125:G133" si="10">C125*D$187</f>
-        <v>4450</v>
+        <v>3560</v>
       </c>
       <c r="H125" s="33">
         <f t="shared" si="7"/>
-        <v>1950</v>
+        <v>1560</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>134</v>
@@ -9061,11 +9061,11 @@
       </c>
       <c r="G126" s="33">
         <f t="shared" si="10"/>
-        <v>4275</v>
+        <v>3420</v>
       </c>
       <c r="H126" s="33">
         <f t="shared" si="7"/>
-        <v>1775</v>
+        <v>1420</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>136</v>
@@ -9099,11 +9099,11 @@
       </c>
       <c r="G127" s="33">
         <f t="shared" si="10"/>
-        <v>3950</v>
+        <v>3160</v>
       </c>
       <c r="H127" s="33">
         <f t="shared" si="7"/>
-        <v>1450</v>
+        <v>1160</v>
       </c>
       <c r="I127" s="6" t="s">
         <v>218</v>
@@ -9137,11 +9137,11 @@
       </c>
       <c r="G128" s="33">
         <f t="shared" si="10"/>
-        <v>3800</v>
+        <v>3040</v>
       </c>
       <c r="H128" s="33">
         <f t="shared" si="7"/>
-        <v>1300</v>
+        <v>1040</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>142</v>
@@ -9175,11 +9175,11 @@
       </c>
       <c r="G129" s="33">
         <f t="shared" si="10"/>
-        <v>4825</v>
+        <v>3860</v>
       </c>
       <c r="H129" s="33">
         <f t="shared" si="7"/>
-        <v>2325</v>
+        <v>1860</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>127</v>
@@ -9213,11 +9213,11 @@
       </c>
       <c r="G130" s="33">
         <f t="shared" si="10"/>
-        <v>4575</v>
+        <v>3660</v>
       </c>
       <c r="H130" s="33">
         <f t="shared" ref="H130:H161" si="11">G130-D$187</f>
-        <v>2075</v>
+        <v>1660</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>133</v>
@@ -9251,11 +9251,11 @@
       </c>
       <c r="G131" s="33">
         <f t="shared" si="10"/>
-        <v>4425</v>
+        <v>3540</v>
       </c>
       <c r="H131" s="33">
         <f t="shared" si="11"/>
-        <v>1925</v>
+        <v>1540</v>
       </c>
       <c r="I131" s="6" t="s">
         <v>137</v>
@@ -9289,11 +9289,11 @@
       </c>
       <c r="G132" s="33">
         <f t="shared" si="10"/>
-        <v>4400</v>
+        <v>3520</v>
       </c>
       <c r="H132" s="33">
         <f t="shared" si="11"/>
-        <v>1900</v>
+        <v>1520</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>218</v>
@@ -9327,11 +9327,11 @@
       </c>
       <c r="G133" s="33">
         <f t="shared" si="10"/>
-        <v>4300</v>
+        <v>3440</v>
       </c>
       <c r="H133" s="33">
         <f t="shared" si="11"/>
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="I133" s="6" t="s">
         <v>142</v>
@@ -9368,7 +9368,7 @@
       </c>
       <c r="H134" s="33">
         <f t="shared" si="11"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>217</v>
@@ -9402,11 +9402,11 @@
       </c>
       <c r="G135" s="33">
         <f>C135*D$187</f>
-        <v>4250</v>
+        <v>3400</v>
       </c>
       <c r="H135" s="33">
         <f t="shared" si="11"/>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="I135" s="6" t="s">
         <v>221</v>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="H136" s="33">
         <f t="shared" si="11"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I136" s="6" t="s">
         <v>137</v>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="H137" s="33">
         <f t="shared" si="11"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I137" s="6" t="s">
         <v>137</v>
@@ -9514,11 +9514,11 @@
       </c>
       <c r="G138" s="33">
         <f>C138*D$187</f>
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="H138" s="33">
         <f t="shared" si="11"/>
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="I138" s="6" t="s">
         <v>217</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="H139" s="33">
         <f t="shared" si="11"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I139" s="6" t="s">
         <v>128</v>
@@ -9592,7 +9592,7 @@
       </c>
       <c r="H140" s="33">
         <f t="shared" si="11"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>131</v>
@@ -9626,11 +9626,11 @@
       </c>
       <c r="G141" s="33">
         <f>C141*D$187</f>
-        <v>3325</v>
+        <v>2660</v>
       </c>
       <c r="H141" s="33">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>660</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>653</v>
@@ -9664,11 +9664,11 @@
       </c>
       <c r="G142" s="33">
         <f>C142*D$187</f>
-        <v>4375</v>
+        <v>3500</v>
       </c>
       <c r="H142" s="33">
         <f t="shared" si="11"/>
-        <v>1875</v>
+        <v>1500</v>
       </c>
       <c r="I142" s="6" t="s">
         <v>133</v>
@@ -9702,11 +9702,11 @@
       </c>
       <c r="G143" s="33">
         <f>C143*D$187</f>
-        <v>4350</v>
+        <v>3480</v>
       </c>
       <c r="H143" s="33">
         <f t="shared" si="11"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>135</v>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="H144" s="33">
         <f t="shared" si="11"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I144" s="16" t="s">
         <v>133</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H145" s="33">
         <f t="shared" si="11"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I145" s="6" t="s">
         <v>137</v>
@@ -9814,11 +9814,11 @@
       </c>
       <c r="G146" s="33">
         <f>C146*D$187</f>
-        <v>3325</v>
+        <v>2660</v>
       </c>
       <c r="H146" s="33">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>660</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>130</v>
@@ -9852,11 +9852,11 @@
       </c>
       <c r="G147" s="33">
         <f>C147*D$187</f>
-        <v>4825</v>
+        <v>3860</v>
       </c>
       <c r="H147" s="33">
         <f t="shared" si="11"/>
-        <v>2325</v>
+        <v>1860</v>
       </c>
       <c r="I147" s="16" t="s">
         <v>217</v>
@@ -9893,7 +9893,7 @@
       </c>
       <c r="H148" s="33">
         <f t="shared" si="11"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I148" s="16" t="s">
         <v>139</v>
@@ -9927,11 +9927,11 @@
       </c>
       <c r="G149" s="33">
         <f t="shared" ref="G149:G154" si="12">C149*D$187</f>
-        <v>3900</v>
+        <v>3120</v>
       </c>
       <c r="H149" s="33">
         <f t="shared" si="11"/>
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>132</v>
@@ -9961,11 +9961,11 @@
       </c>
       <c r="G150" s="33">
         <f t="shared" si="12"/>
-        <v>3300</v>
+        <v>2640</v>
       </c>
       <c r="H150" s="33">
         <f t="shared" si="11"/>
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>510</v>
@@ -9995,11 +9995,11 @@
       </c>
       <c r="G151" s="33">
         <f t="shared" si="12"/>
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="H151" s="33">
         <f t="shared" si="11"/>
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>142</v>
@@ -10029,11 +10029,11 @@
       </c>
       <c r="G152" s="33">
         <f t="shared" si="12"/>
-        <v>4475</v>
+        <v>3580</v>
       </c>
       <c r="H152" s="33">
         <f t="shared" si="11"/>
-        <v>1975</v>
+        <v>1580</v>
       </c>
       <c r="I152" s="6" t="s">
         <v>132</v>
@@ -10063,11 +10063,11 @@
       </c>
       <c r="G153" s="33">
         <f t="shared" si="12"/>
-        <v>4100</v>
+        <v>3280</v>
       </c>
       <c r="H153" s="33">
         <f t="shared" si="11"/>
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="I153" s="6" t="s">
         <v>127</v>
@@ -10097,11 +10097,11 @@
       </c>
       <c r="G154" s="33">
         <f t="shared" si="12"/>
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="H154" s="33">
         <f t="shared" si="11"/>
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="I154" s="6" t="s">
         <v>138</v>
@@ -10134,7 +10134,7 @@
       </c>
       <c r="H155" s="33">
         <f t="shared" si="11"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I155" s="6" t="s">
         <v>131</v>
@@ -10164,11 +10164,11 @@
       </c>
       <c r="G156" s="33">
         <f>C156*D$187</f>
-        <v>4725</v>
+        <v>3780</v>
       </c>
       <c r="H156" s="33">
         <f t="shared" si="11"/>
-        <v>2225</v>
+        <v>1780</v>
       </c>
       <c r="I156" s="6" t="s">
         <v>142</v>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="H157" s="33">
         <f t="shared" si="11"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I157" s="6" t="s">
         <v>137</v>
@@ -10231,11 +10231,11 @@
       </c>
       <c r="G158" s="33">
         <f>C158*D$187</f>
-        <v>4100</v>
+        <v>3280</v>
       </c>
       <c r="H158" s="33">
         <f t="shared" si="11"/>
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="I158" s="6" t="s">
         <v>142</v>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="H159" s="33">
         <f t="shared" si="11"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I159" s="6" t="s">
         <v>138</v>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="H160" s="33">
         <f t="shared" si="11"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I160" s="6" t="s">
         <v>128</v>
@@ -10331,11 +10331,11 @@
       </c>
       <c r="G161" s="33">
         <f>C161*D$187</f>
-        <v>4425</v>
+        <v>3540</v>
       </c>
       <c r="H161" s="33">
         <f t="shared" si="11"/>
-        <v>1925</v>
+        <v>1540</v>
       </c>
       <c r="I161" s="6" t="s">
         <v>133</v>
@@ -10365,11 +10365,11 @@
       </c>
       <c r="G162" s="33">
         <f>C162*D$187</f>
-        <v>4125</v>
+        <v>3300</v>
       </c>
       <c r="H162" s="33">
         <f t="shared" ref="H162:H172" si="13">G162-D$187</f>
-        <v>1625</v>
+        <v>1300</v>
       </c>
       <c r="I162" s="6" t="s">
         <v>138</v>
@@ -10399,11 +10399,11 @@
       </c>
       <c r="G163" s="33">
         <f>C163*D$187</f>
-        <v>4575</v>
+        <v>3660</v>
       </c>
       <c r="H163" s="33">
         <f t="shared" si="13"/>
-        <v>2075</v>
+        <v>1660</v>
       </c>
       <c r="I163" s="6" t="s">
         <v>128</v>
@@ -10436,7 +10436,7 @@
       </c>
       <c r="H164" s="33">
         <f t="shared" si="13"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I164" s="6" t="s">
         <v>129</v>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="H165" s="33">
         <f t="shared" si="13"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>128</v>
@@ -10499,11 +10499,11 @@
       </c>
       <c r="G166" s="33">
         <f>C166*D$187</f>
-        <v>4400</v>
+        <v>3520</v>
       </c>
       <c r="H166" s="33">
         <f t="shared" si="13"/>
-        <v>1900</v>
+        <v>1520</v>
       </c>
       <c r="I166" s="45" t="s">
         <v>142</v>
@@ -10533,11 +10533,11 @@
       </c>
       <c r="G167" s="33">
         <f>C167*D$187</f>
-        <v>4350</v>
+        <v>3480</v>
       </c>
       <c r="H167" s="33">
         <f t="shared" si="13"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>136</v>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="H168" s="33">
         <f t="shared" si="13"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I168" s="6" t="s">
         <v>127</v>
@@ -10600,11 +10600,11 @@
       </c>
       <c r="G169" s="33">
         <f>C169*D$187</f>
-        <v>3775</v>
+        <v>3020</v>
       </c>
       <c r="H169" s="33">
         <f t="shared" si="13"/>
-        <v>1275</v>
+        <v>1020</v>
       </c>
       <c r="I169" s="6" t="s">
         <v>133</v>
@@ -10634,11 +10634,11 @@
       </c>
       <c r="G170" s="33">
         <f>C170*D$187</f>
-        <v>4600</v>
+        <v>3680</v>
       </c>
       <c r="H170" s="33">
         <f t="shared" si="13"/>
-        <v>2100</v>
+        <v>1680</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>133</v>
@@ -10668,11 +10668,11 @@
       </c>
       <c r="G171" s="33">
         <f>C171*D$187</f>
-        <v>4450</v>
+        <v>3560</v>
       </c>
       <c r="H171" s="33">
         <f t="shared" si="13"/>
-        <v>1950</v>
+        <v>1560</v>
       </c>
       <c r="I171" s="6" t="s">
         <v>132</v>
@@ -10702,11 +10702,11 @@
       </c>
       <c r="G172" s="33">
         <f>C172*D$187</f>
-        <v>4125</v>
+        <v>3300</v>
       </c>
       <c r="H172" s="33">
         <f t="shared" si="13"/>
-        <v>1625</v>
+        <v>1300</v>
       </c>
       <c r="I172" s="6" t="s">
         <v>143</v>
@@ -10802,11 +10802,11 @@
       </c>
       <c r="I177" s="68">
         <f t="shared" ref="I177:I193" si="15">SUMIFS($H$2:$H$172,$J$2:$J$172,H177)</f>
-        <v>6475</v>
+        <v>5180</v>
       </c>
       <c r="J177" s="65">
         <f t="shared" ref="J177:J193" si="16">I177/D$184*100</f>
-        <v>6.4750000000000005</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10858,11 +10858,11 @@
       </c>
       <c r="I179" s="68">
         <f t="shared" si="15"/>
-        <v>25725</v>
+        <v>20580</v>
       </c>
       <c r="J179" s="65">
         <f t="shared" si="16"/>
-        <v>25.724999999999998</v>
+        <v>20.580000000000002</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10914,11 +10914,11 @@
       </c>
       <c r="I181" s="68">
         <f t="shared" si="15"/>
-        <v>3249.9999999999995</v>
+        <v>2600</v>
       </c>
       <c r="J181" s="65">
         <f t="shared" si="16"/>
-        <v>3.2499999999999996</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10929,7 +10929,7 @@
       <c r="C182" s="6"/>
       <c r="D182" s="24">
         <f>D189/1</f>
-        <v>100.325</v>
+        <v>80.259999999999991</v>
       </c>
       <c r="E182" s="16"/>
       <c r="F182" s="16"/>
@@ -10942,11 +10942,11 @@
       </c>
       <c r="I182" s="68">
         <f t="shared" si="15"/>
-        <v>12525</v>
+        <v>10020</v>
       </c>
       <c r="J182" s="65">
         <f t="shared" si="16"/>
-        <v>12.525</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10992,11 +10992,11 @@
       </c>
       <c r="I184" s="68">
         <f t="shared" si="15"/>
-        <v>14050</v>
+        <v>11240</v>
       </c>
       <c r="J184" s="65">
         <f t="shared" si="16"/>
-        <v>14.05</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11020,11 +11020,11 @@
       </c>
       <c r="I185" s="68">
         <f t="shared" si="15"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="J185" s="65">
         <f t="shared" si="16"/>
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11062,8 +11062,8 @@
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="70">
-        <f>D185*2.5</f>
-        <v>2500</v>
+        <f>D185*2</f>
+        <v>2000</v>
       </c>
       <c r="E187" s="16"/>
       <c r="F187" s="16"/>
@@ -11076,11 +11076,11 @@
       </c>
       <c r="I187" s="68">
         <f t="shared" si="15"/>
-        <v>10300</v>
+        <v>8240</v>
       </c>
       <c r="J187" s="65">
         <f t="shared" si="16"/>
-        <v>10.299999999999999</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11091,7 +11091,7 @@
       <c r="C188" s="6"/>
       <c r="D188" s="21">
         <f>SUM(H2:H172)</f>
-        <v>100325</v>
+        <v>80260</v>
       </c>
       <c r="E188" s="16"/>
       <c r="F188" s="16"/>
@@ -11104,11 +11104,11 @@
       </c>
       <c r="I188" s="68">
         <f t="shared" si="15"/>
-        <v>15100</v>
+        <v>12080</v>
       </c>
       <c r="J188" s="65">
         <f t="shared" si="16"/>
-        <v>15.1</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11119,7 +11119,7 @@
       <c r="C189" s="6"/>
       <c r="D189" s="6">
         <f>D188/D184*100</f>
-        <v>100.325</v>
+        <v>80.259999999999991</v>
       </c>
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
@@ -11132,11 +11132,11 @@
       </c>
       <c r="I189" s="68">
         <f t="shared" si="15"/>
-        <v>2950</v>
+        <v>2360</v>
       </c>
       <c r="J189" s="65">
         <f t="shared" si="16"/>
-        <v>2.9499999999999997</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11145,7 +11145,7 @@
       <c r="C190" s="6"/>
       <c r="D190" s="21">
         <f>D189/11</f>
-        <v>9.120454545454546</v>
+        <v>7.2963636363636359</v>
       </c>
       <c r="E190" s="16"/>
       <c r="F190" s="16"/>
@@ -11204,11 +11204,11 @@
       </c>
       <c r="I192" s="68">
         <f t="shared" si="15"/>
-        <v>12450</v>
+        <v>9960</v>
       </c>
       <c r="J192" s="65">
         <f t="shared" si="16"/>
-        <v>12.45</v>
+        <v>9.9599999999999991</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17371,7 +17371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+    <sheetView topLeftCell="C15" workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
@@ -20166,7 +20166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -20844,8 +20844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24825,8 +24825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25098,8 +25098,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="82">
-        <f t="shared" si="1"/>
-        <v>-625</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>143</v>
@@ -25601,7 +25600,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="23">
         <f>COUNTIF(H2:H24,"&lt;0")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="36"/>
@@ -25618,7 +25617,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="24">
         <f>D25-D26</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="36"/>
@@ -25635,7 +25634,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6">
         <f>D27/D25*100</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="36"/>
@@ -25686,7 +25685,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="24">
         <f>D28-D29</f>
-        <v>1.7249417249417078</v>
+        <v>6.7249417249417078</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="36"/>
@@ -25703,7 +25702,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="24">
         <f>D31/1</f>
-        <v>1.7249417249417078</v>
+        <v>6.7249417249417078</v>
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="36"/>
@@ -25786,7 +25785,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="33">
         <f>SUM(H2:H24)</f>
-        <v>268.75</v>
+        <v>893.75</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="36"/>
@@ -25803,7 +25802,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="16">
         <f>D37/D33*100</f>
-        <v>1.075</v>
+        <v>3.5749999999999997</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="36"/>
@@ -32397,8 +32396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32737,8 +32736,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="82">
-        <f t="shared" si="0"/>
-        <v>-625</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>217</v>
@@ -33078,7 +33076,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="23">
         <f>COUNTIF(H2:H23,"&lt;0")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="36"/>
@@ -33095,7 +33093,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="24">
         <f>D24-D25</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="36"/>
@@ -33112,7 +33110,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6">
         <f>D26/D24*100</f>
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="36"/>
@@ -33163,7 +33161,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="24">
         <f>D27-D28</f>
-        <v>3.3939785740672477</v>
+        <v>9.6439785740672477</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="36"/>
@@ -33180,7 +33178,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="24">
         <f>D30/1</f>
-        <v>3.3939785740672477</v>
+        <v>9.6439785740672477</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="36"/>
@@ -33263,7 +33261,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="33">
         <f>SUM(H2:H23)</f>
-        <v>437.5</v>
+        <v>1062.5</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="36"/>
@@ -33280,7 +33278,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="16">
         <f>D36/D32*100</f>
-        <v>1.7500000000000002</v>
+        <v>4.25</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="36"/>
@@ -35428,8 +35426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36240,7 +36238,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41475,7 +41473,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48466,8 +48464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48807,8 +48805,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="82">
-        <f t="shared" si="0"/>
-        <v>-625</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>132</v>
@@ -49856,7 +49853,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="23">
         <f>COUNTIF(H2:H41,"&lt;0")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="36"/>
@@ -49873,7 +49870,7 @@
       <c r="C45" s="6"/>
       <c r="D45" s="24">
         <f>D43-D44</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="36"/>
@@ -49890,7 +49887,7 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6">
         <f>D45/D43*100</f>
-        <v>68.421052631578945</v>
+        <v>71.05263157894737</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="36"/>
@@ -49941,7 +49938,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="24">
         <f>D46-D47</f>
-        <v>10.529523076429655</v>
+        <v>13.16110202379808</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="36"/>
@@ -49958,7 +49955,7 @@
       <c r="C50" s="6"/>
       <c r="D50" s="24">
         <f>D49/1</f>
-        <v>10.529523076429655</v>
+        <v>13.16110202379808</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="36"/>
@@ -50041,7 +50038,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="33">
         <f>SUM(H2:H41)</f>
-        <v>3925</v>
+        <v>4550</v>
       </c>
       <c r="E55" s="33"/>
       <c r="F55" s="36"/>
@@ -50058,7 +50055,7 @@
       <c r="C56" s="6"/>
       <c r="D56" s="16">
         <f>D55/D51*100</f>
-        <v>15.7</v>
+        <v>18.2</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="36"/>
@@ -53612,8 +53609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tecnica_analise/2022/EXPECTED-OVER-2022.xlsx
+++ b/tecnica_analise/2022/EXPECTED-OVER-2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="21" r:id="rId1"/>
@@ -4307,7 +4307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D172" workbookViewId="0">
+    <sheetView topLeftCell="D172" workbookViewId="0">
       <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
@@ -14719,8 +14719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16813,7 +16813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -16880,11 +16880,10 @@
       </c>
       <c r="G2" s="82">
         <f>C2*D$22</f>
-        <v>1156.25</v>
+        <v>925</v>
       </c>
       <c r="H2" s="82">
-        <f t="shared" ref="H2:H7" si="0">G2-D$22</f>
-        <v>531.25</v>
+        <v>0</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>128</v>
@@ -16914,11 +16913,11 @@
       </c>
       <c r="G3" s="33">
         <f>C3*D$22</f>
-        <v>1193.75</v>
+        <v>955</v>
       </c>
       <c r="H3" s="33">
-        <f t="shared" si="0"/>
-        <v>568.75</v>
+        <f t="shared" ref="H2:H7" si="0">G3-D$22</f>
+        <v>455</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>127</v>
@@ -16951,7 +16950,7 @@
       </c>
       <c r="H4" s="33">
         <f t="shared" si="0"/>
-        <v>-625</v>
+        <v>-500</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>128</v>
@@ -16982,11 +16981,11 @@
       </c>
       <c r="G5" s="33">
         <f>C5*D$22</f>
-        <v>1075</v>
+        <v>860</v>
       </c>
       <c r="H5" s="33">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>136</v>
@@ -17016,11 +17015,11 @@
       </c>
       <c r="G6" s="33">
         <f>C6*D$22</f>
-        <v>1156.25</v>
+        <v>925</v>
       </c>
       <c r="H6" s="33">
         <f t="shared" si="0"/>
-        <v>531.25</v>
+        <v>425</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>134</v>
@@ -17050,11 +17049,11 @@
       </c>
       <c r="G7" s="33">
         <f>C7*D$22</f>
-        <v>1087.5</v>
+        <v>870</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="0"/>
-        <v>462.5</v>
+        <v>370</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>138</v>
@@ -17291,8 +17290,8 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="32">
-        <f>D21*2.5</f>
-        <v>625</v>
+        <f>D21*2</f>
+        <v>500</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="36"/>
@@ -17309,7 +17308,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="33">
         <f>SUM(H2:H9)</f>
-        <v>1918.75</v>
+        <v>1110</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="36"/>
@@ -17326,7 +17325,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="16">
         <f>D23/D19*100</f>
-        <v>7.6749999999999998</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="36"/>
@@ -20166,8 +20165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20235,11 +20234,11 @@
       </c>
       <c r="G2" s="33">
         <f>C2*D$25</f>
-        <v>1168.75</v>
+        <v>935</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" ref="H2:H11" si="0">G2-D$25</f>
-        <v>543.75</v>
+        <v>435</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>138</v>
@@ -20269,11 +20268,11 @@
       </c>
       <c r="G3" s="33">
         <f>C3*D$25</f>
-        <v>1156.25</v>
+        <v>925</v>
       </c>
       <c r="H3" s="33">
         <f t="shared" si="0"/>
-        <v>531.25</v>
+        <v>425</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>128</v>
@@ -20303,11 +20302,11 @@
       </c>
       <c r="G4" s="33">
         <f>C4*D$25</f>
-        <v>1181.25</v>
+        <v>945</v>
       </c>
       <c r="H4" s="33">
         <f t="shared" si="0"/>
-        <v>556.25</v>
+        <v>445</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>138</v>
@@ -20337,11 +20336,11 @@
       </c>
       <c r="G5" s="33">
         <f>C5*D$25</f>
-        <v>1050</v>
+        <v>840</v>
       </c>
       <c r="H5" s="33">
         <f t="shared" si="0"/>
-        <v>425</v>
+        <v>340</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>143</v>
@@ -20374,7 +20373,7 @@
       </c>
       <c r="H6" s="33">
         <f t="shared" si="0"/>
-        <v>-625</v>
+        <v>-500</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>128</v>
@@ -20407,7 +20406,7 @@
       </c>
       <c r="H7" s="33">
         <f t="shared" si="0"/>
-        <v>-625</v>
+        <v>-500</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>131</v>
@@ -20437,11 +20436,11 @@
       </c>
       <c r="G8" s="33">
         <f>C8*D$25</f>
-        <v>1043.75</v>
+        <v>835</v>
       </c>
       <c r="H8" s="33">
         <f t="shared" si="0"/>
-        <v>418.75</v>
+        <v>335</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>132</v>
@@ -20474,7 +20473,7 @@
       </c>
       <c r="H9" s="33">
         <f t="shared" si="0"/>
-        <v>-625</v>
+        <v>-500</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>143</v>
@@ -20504,11 +20503,11 @@
       </c>
       <c r="G10" s="33">
         <f>C10*D$25</f>
-        <v>1112.5</v>
+        <v>890</v>
       </c>
       <c r="H10" s="33">
         <f t="shared" si="0"/>
-        <v>487.5</v>
+        <v>390</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>134</v>
@@ -20538,11 +20537,11 @@
       </c>
       <c r="G11" s="33">
         <f>C11*D$25</f>
-        <v>1068.75</v>
+        <v>855</v>
       </c>
       <c r="H11" s="33">
         <f t="shared" si="0"/>
-        <v>443.75</v>
+        <v>355</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>136</v>
@@ -20765,8 +20764,8 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="32">
-        <f>D24*2.5</f>
-        <v>625</v>
+        <f>D24*2</f>
+        <v>500</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="36"/>
@@ -20783,7 +20782,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="33">
         <f>SUM(H2:H13)</f>
-        <v>1531.25</v>
+        <v>1225</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="36"/>
@@ -20800,7 +20799,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="16">
         <f>D26/D22*100</f>
-        <v>6.125</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="36"/>
